--- a/tags.xlsx
+++ b/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1063">
   <si>
     <t>type</t>
   </si>
@@ -2650,27 +2650,15 @@
     <t>Random fact I love</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Personality</t>
-  </si>
-  <si>
     <t>Give me travel tips to</t>
   </si>
   <si>
-    <t>Interests</t>
-  </si>
-  <si>
     <t>We’ll get along if</t>
   </si>
   <si>
     <t>All I ask is that you</t>
   </si>
   <si>
-    <t>Expectation</t>
-  </si>
-  <si>
     <t>I’ll give you the setup, you guess the punchline</t>
   </si>
   <si>
@@ -2797,9 +2785,6 @@
     <t>I bet you can’t</t>
   </si>
   <si>
-    <t>Challenge</t>
-  </si>
-  <si>
     <t>Best travel story</t>
   </si>
   <si>
@@ -2906,6 +2891,24 @@
   </si>
   <si>
     <t>Not for me:</t>
+  </si>
+  <si>
+    <t>3 things you are most proud of in your life</t>
+  </si>
+  <si>
+    <t>3 things you regret the most in your life</t>
+  </si>
+  <si>
+    <t>3 things you would like to change in your life in the next 5 years</t>
+  </si>
+  <si>
+    <t>How much is too much?</t>
+  </si>
+  <si>
+    <t>Wish I could go back in time and</t>
+  </si>
+  <si>
+    <t>There are two types of people</t>
   </si>
   <si>
     <t>prompt</t>
@@ -3206,7 +3209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3288,17 +3291,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF172B4D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF172B4D"/>
-      <name val="Arial"/>
+      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -3404,25 +3404,25 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -15301,793 +15301,484 @@
       <c r="A2" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>883</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>884</v>
-      </c>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>885</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>886</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>887</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>884</v>
-      </c>
+      <c r="A8" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>888</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="C9" s="20" t="s">
         <v>884</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>881</v>
+        <v>886</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>893</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>894</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>893</v>
+      </c>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="B19" s="22"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>901</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>903</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="B22" s="22"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="B23" s="22"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="B24" s="22"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>906</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>878</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>907</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="B26" s="22"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="B27" s="22"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="B28" s="22"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>910</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="B29" s="22"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="B30" s="22"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>912</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="B31" s="22"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>913</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="20" t="s">
-        <v>884</v>
-      </c>
+      <c r="A32" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="B32" s="22"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>914</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="20" t="s">
-        <v>881</v>
-      </c>
+      <c r="A33" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>915</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="B34" s="22"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="B35" s="22"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="B36" s="22"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="B37" s="22"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="B38" s="22"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>920</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="B39" s="22"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="19" t="s">
-        <v>921</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
-        <v>879</v>
-      </c>
+      <c r="A40" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="B40" s="22"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="20" t="s">
-        <v>881</v>
-      </c>
+      <c r="A41" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="B41" s="20"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>923</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="19" t="s">
-        <v>924</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="20" t="s">
-        <v>884</v>
-      </c>
+      <c r="A43" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>879</v>
-      </c>
+      <c r="A44" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>926</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>927</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>928</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>927</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="B47" s="22"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>930</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>927</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="B48" s="22"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>931</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="B49" s="22"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>932</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>884</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="B50" s="22"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>933</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>881</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="B51" s="22"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>934</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="B52" s="22"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>935</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="B53" s="22"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>936</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>927</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="B54" s="22"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>927</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="B55" s="22"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>938</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>933</v>
+      </c>
+      <c r="B56" s="22"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>939</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="B57" s="22"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>940</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>879</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="B58" s="22"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="24" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="20" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="22" t="s">
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="23" t="s">
+      <c r="B65" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="23" t="s">
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="23" t="s">
+      <c r="B66" s="24" t="s">
         <v>945</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="23" t="s">
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="24" t="s">
         <v>946</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="23" t="s">
+      <c r="B67" s="24" t="s">
         <v>947</v>
       </c>
-      <c r="B65" s="23" t="s">
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="24" t="s">
         <v>948</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="23" t="s">
+      <c r="B68" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="B66" s="23" t="s">
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="23" t="s">
+      <c r="B69" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="B67" s="23" t="s">
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="24" t="s">
         <v>952</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="23" t="s">
+      <c r="B70" s="24" t="s">
         <v>953</v>
       </c>
-      <c r="B68" s="23" t="s">
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="24" t="s">
         <v>954</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="23" t="s">
+      <c r="B71" s="24" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="24" t="s">
         <v>955</v>
       </c>
-      <c r="B69" s="23" t="s">
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="24" t="s">
         <v>956</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="23" t="s">
+      <c r="B73" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="B70" s="23" t="s">
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="23" t="s">
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="23" t="s">
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="24" t="s">
         <v>960</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="23" t="s">
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="B73" s="23" t="s">
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="23" t="s">
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="20" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="24" t="s">
+        <v>964</v>
+      </c>
+    </row>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -17031,498 +16722,498 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>964</v>
+      <c r="A1" s="20" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>966</v>
+      <c r="A3" s="20" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>967</v>
+      <c r="A4" s="20" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>968</v>
+      <c r="A5" s="20" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>970</v>
+      <c r="A7" s="20" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>971</v>
+      <c r="A8" s="20" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>973</v>
+      <c r="A10" s="20" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>975</v>
+      <c r="A12" s="20" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>976</v>
+      <c r="A13" s="20" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>977</v>
+      <c r="A14" s="20" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>978</v>
+      <c r="A15" s="20" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>980</v>
+      <c r="A17" s="20" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>981</v>
+      <c r="A18" s="20" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>983</v>
+      <c r="A20" s="20" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>985</v>
+      <c r="A22" s="20" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>986</v>
+      <c r="A23" s="20" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>987</v>
+      <c r="A24" s="20" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>988</v>
+      <c r="A25" s="20" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>989</v>
+      <c r="A26" s="20" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>992</v>
+      <c r="A29" s="20" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>993</v>
+      <c r="A30" s="20" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>994</v>
+      <c r="A31" s="20" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="24" t="s">
-        <v>996</v>
+      <c r="A33" s="20" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>997</v>
+      <c r="A34" s="20" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="24" t="s">
-        <v>1000</v>
+      <c r="A37" s="20" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>1001</v>
+      <c r="A38" s="20" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>1002</v>
+      <c r="A39" s="20" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="24" t="s">
-        <v>1003</v>
+      <c r="A40" s="20" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>1004</v>
+      <c r="A41" s="20" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="24" t="s">
-        <v>1006</v>
+      <c r="A43" s="20" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>1007</v>
+      <c r="A44" s="20" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>1009</v>
+      <c r="A46" s="20" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="24" t="s">
-        <v>1011</v>
+      <c r="A48" s="20" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="24" t="s">
-        <v>1012</v>
+      <c r="A49" s="20" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="24" t="s">
-        <v>1013</v>
+      <c r="A50" s="20" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="24" t="s">
-        <v>1014</v>
+      <c r="A51" s="20" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="24" t="s">
-        <v>1015</v>
+      <c r="A52" s="20" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="24" t="s">
-        <v>1016</v>
+      <c r="A53" s="20" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="24" t="s">
-        <v>1017</v>
+      <c r="A54" s="20" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="24" t="s">
-        <v>1018</v>
+      <c r="A55" s="20" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="24" t="s">
-        <v>1019</v>
+      <c r="A56" s="20" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>1020</v>
+      <c r="A57" s="20" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
-        <v>1021</v>
+      <c r="A58" s="20" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="24" t="s">
-        <v>1022</v>
+      <c r="A59" s="20" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>1023</v>
+      <c r="A60" s="20" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>1024</v>
+      <c r="A61" s="20" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="24" t="s">
-        <v>1025</v>
+      <c r="A62" s="20" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="24" t="s">
-        <v>1026</v>
+      <c r="A63" s="20" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="24" t="s">
-        <v>1027</v>
+      <c r="A64" s="20" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="24" t="s">
-        <v>1028</v>
+      <c r="A65" s="20" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="24" t="s">
-        <v>1029</v>
+      <c r="A66" s="20" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="24" t="s">
-        <v>1030</v>
+      <c r="A67" s="20" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="24" t="s">
-        <v>1031</v>
+      <c r="A68" s="20" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="24" t="s">
-        <v>937</v>
+      <c r="A69" s="20" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="24" t="s">
-        <v>1034</v>
+      <c r="A72" s="20" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="24" t="s">
-        <v>1035</v>
+      <c r="A73" s="20" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="24" t="s">
-        <v>1036</v>
+      <c r="A74" s="20" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="24" t="s">
-        <v>1039</v>
+      <c r="A77" s="20" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="24" t="s">
-        <v>1040</v>
+      <c r="A78" s="20" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="26" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="24" t="s">
-        <v>1042</v>
+      <c r="A80" s="20" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="24" t="s">
-        <v>1043</v>
+      <c r="A81" s="20" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="26" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="24" t="s">
-        <v>1045</v>
+      <c r="A83" s="20" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="24" t="s">
-        <v>1046</v>
+      <c r="A84" s="20" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="24" t="s">
-        <v>1047</v>
+      <c r="A85" s="20" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="24" t="s">
-        <v>1048</v>
+      <c r="A86" s="20" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="24" t="s">
-        <v>1049</v>
+      <c r="A87" s="20" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="24" t="s">
-        <v>1051</v>
+      <c r="A89" s="20" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="24" t="s">
-        <v>1053</v>
+      <c r="A91" s="20" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="24" t="s">
-        <v>1054</v>
+      <c r="A92" s="20" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="24" t="s">
-        <v>1057</v>
+      <c r="A95" s="20" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="24" t="s">
-        <v>1058</v>
+      <c r="A96" s="20" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="26" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="24" t="s">
-        <v>1061</v>
+      <c r="A99" s="20" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1"/>

--- a/tags.xlsx
+++ b/tags.xlsx
@@ -4,9 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="tags" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="criterias" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="prompts" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="photo_prompts" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="block" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="criterias" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="prompts" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="photo_prompts" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="837">
   <si>
     <t>type</t>
   </si>
@@ -1804,6 +1805,57 @@
     <t>Zulu</t>
   </si>
   <si>
+    <t>meyer_briggs</t>
+  </si>
+  <si>
+    <t>ISTJ - The Inspector</t>
+  </si>
+  <si>
+    <t>ISTP - The Crafter</t>
+  </si>
+  <si>
+    <t>ISFJ - The Protector</t>
+  </si>
+  <si>
+    <t>ISFP - The Artist</t>
+  </si>
+  <si>
+    <t>INFJ - The Advocate</t>
+  </si>
+  <si>
+    <t>INFP - The Mediator</t>
+  </si>
+  <si>
+    <t>INTJ - The Architect</t>
+  </si>
+  <si>
+    <t>INTP - The Thinker</t>
+  </si>
+  <si>
+    <t>ESTP - The Persuader</t>
+  </si>
+  <si>
+    <t>ESTJ - The Director</t>
+  </si>
+  <si>
+    <t>ESFP - The Performer</t>
+  </si>
+  <si>
+    <t>ESFJ - The Caregiver</t>
+  </si>
+  <si>
+    <t>ENFP - The Champion</t>
+  </si>
+  <si>
+    <t>ENFJ - The Giver</t>
+  </si>
+  <si>
+    <t>ENTP - The Debater</t>
+  </si>
+  <si>
+    <t>ENTJ - The Commander</t>
+  </si>
+  <si>
     <t>block</t>
   </si>
   <si>
@@ -1846,777 +1898,33 @@
     <t>Someone is in danger</t>
   </si>
   <si>
-    <t>meyer_briggs</t>
-  </si>
-  <si>
-    <t>ISTJ - The Inspector</t>
-  </si>
-  <si>
-    <t>ISTP - The Crafter</t>
-  </si>
-  <si>
-    <t>ISFJ - The Protector</t>
-  </si>
-  <si>
-    <t>ISFP - The Artist</t>
-  </si>
-  <si>
-    <t>INFJ - The Advocate</t>
-  </si>
-  <si>
-    <t>INFP - The Mediator</t>
-  </si>
-  <si>
-    <t>INTJ - The Architect</t>
-  </si>
-  <si>
-    <t>INTP - The Thinker</t>
-  </si>
-  <si>
-    <t>ESTP - The Persuader</t>
-  </si>
-  <si>
-    <t>ESTJ - The Director</t>
-  </si>
-  <si>
-    <t>ESFP - The Performer</t>
-  </si>
-  <si>
-    <t>ESFJ - The Caregiver</t>
-  </si>
-  <si>
-    <t>ENFP - The Champion</t>
-  </si>
-  <si>
-    <t>ENFJ - The Giver</t>
-  </si>
-  <si>
-    <t>ENTP - The Debater</t>
-  </si>
-  <si>
-    <t>ENTJ - The Commander</t>
-  </si>
-  <si>
-    <t>peronsality</t>
-  </si>
-  <si>
-    <t>Accessible</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Adaptable</t>
-  </si>
-  <si>
-    <t>Admirable</t>
-  </si>
-  <si>
-    <t>Adventurous</t>
-  </si>
-  <si>
-    <t>Agreeable</t>
-  </si>
-  <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t>Allocentric</t>
-  </si>
-  <si>
-    <t>Amiable</t>
-  </si>
-  <si>
-    <t>Anticipative</t>
-  </si>
-  <si>
-    <t>Appreciative</t>
-  </si>
-  <si>
-    <t>Articulate</t>
-  </si>
-  <si>
-    <t>Aspiring</t>
-  </si>
-  <si>
-    <t>Athletic</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t>Trustworty</t>
+  </si>
+  <si>
+    <t>Principled, Reliable</t>
+  </si>
+  <si>
+    <t>user_visuals</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Insightful, Perceptive</t>
   </si>
   <si>
     <t>Attractive</t>
   </si>
   <si>
-    <t>Balanced</t>
-  </si>
-  <si>
-    <t>Benevolent</t>
-  </si>
-  <si>
-    <t>Brilliant</t>
-  </si>
-  <si>
-    <t>Calm</t>
-  </si>
-  <si>
-    <t>Capable</t>
-  </si>
-  <si>
-    <t>Captivating</t>
-  </si>
-  <si>
-    <t>Caring</t>
-  </si>
-  <si>
-    <t>Challenging</t>
-  </si>
-  <si>
-    <t>Charismatic</t>
-  </si>
-  <si>
-    <t>Charming</t>
-  </si>
-  <si>
-    <t>Cheerful</t>
-  </si>
-  <si>
-    <t>Clean</t>
-  </si>
-  <si>
-    <t>Clear-headed</t>
-  </si>
-  <si>
-    <t>Clever</t>
-  </si>
-  <si>
-    <t>Colorful</t>
-  </si>
-  <si>
-    <t>Companionly</t>
-  </si>
-  <si>
-    <t>Compassionate</t>
-  </si>
-  <si>
-    <t>Conciliatory</t>
-  </si>
-  <si>
-    <t>Confident</t>
-  </si>
-  <si>
-    <t>Conscientious</t>
-  </si>
-  <si>
-    <t>Considerate</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Contemplative</t>
-  </si>
-  <si>
-    <t>Cooperative</t>
-  </si>
-  <si>
-    <t>Courageous</t>
-  </si>
-  <si>
-    <t>Courteous</t>
-  </si>
-  <si>
-    <t>Creative</t>
-  </si>
-  <si>
-    <t>Cultured</t>
-  </si>
-  <si>
-    <t>Curious</t>
-  </si>
-  <si>
-    <t>Daring</t>
-  </si>
-  <si>
-    <t>Debonair</t>
-  </si>
-  <si>
-    <t>Decent</t>
-  </si>
-  <si>
-    <t>Decisive</t>
-  </si>
-  <si>
-    <t>Dedicated</t>
-  </si>
-  <si>
-    <t>Deep</t>
-  </si>
-  <si>
-    <t>Dignified</t>
-  </si>
-  <si>
-    <t>Directed</t>
-  </si>
-  <si>
-    <t>Disciplined</t>
-  </si>
-  <si>
-    <t>Discreet</t>
-  </si>
-  <si>
-    <t>Dramatic</t>
-  </si>
-  <si>
-    <t>Dutiful</t>
-  </si>
-  <si>
-    <t>Dynamic</t>
-  </si>
-  <si>
-    <t>Earnest</t>
-  </si>
-  <si>
-    <t>Ebullient</t>
-  </si>
-  <si>
-    <t>Educated</t>
-  </si>
-  <si>
-    <t>Efficient</t>
-  </si>
-  <si>
-    <t>Elegant</t>
-  </si>
-  <si>
-    <t>Eloquent</t>
-  </si>
-  <si>
-    <t>Empathetic</t>
-  </si>
-  <si>
-    <t>Energetic</t>
-  </si>
-  <si>
-    <t>Enthusiastic</t>
-  </si>
-  <si>
-    <t>Esthetic</t>
-  </si>
-  <si>
-    <t>Exciting</t>
-  </si>
-  <si>
-    <t>Extraordinary</t>
-  </si>
-  <si>
-    <t>Fair</t>
-  </si>
-  <si>
-    <t>Faithful</t>
-  </si>
-  <si>
-    <t>Farsighted</t>
-  </si>
-  <si>
-    <t>Felicific</t>
-  </si>
-  <si>
-    <t>Firm</t>
-  </si>
-  <si>
-    <t>Flexible</t>
-  </si>
-  <si>
-    <t>Focused</t>
-  </si>
-  <si>
-    <t>Forecful</t>
-  </si>
-  <si>
-    <t>Forgiving</t>
-  </si>
-  <si>
-    <t>Forthright</t>
-  </si>
-  <si>
-    <t>Freethinking</t>
-  </si>
-  <si>
-    <t>Friendly</t>
-  </si>
-  <si>
-    <t>Fun-loving</t>
-  </si>
-  <si>
-    <t>Gallant</t>
-  </si>
-  <si>
-    <t>Generous</t>
-  </si>
-  <si>
-    <t>Gentle</t>
-  </si>
-  <si>
-    <t>Genuine</t>
-  </si>
-  <si>
-    <t>Good-natured</t>
-  </si>
-  <si>
-    <t>Gracious</t>
-  </si>
-  <si>
-    <t>Hardworking</t>
-  </si>
-  <si>
-    <t>Healthy</t>
-  </si>
-  <si>
-    <t>Hearty</t>
-  </si>
-  <si>
-    <t>Helpful</t>
-  </si>
-  <si>
-    <t>Herioc</t>
-  </si>
-  <si>
-    <t>High-minded</t>
-  </si>
-  <si>
-    <t>Honest</t>
-  </si>
-  <si>
-    <t>Honorable</t>
-  </si>
-  <si>
-    <t>Humble</t>
-  </si>
-  <si>
-    <t>Humorous</t>
-  </si>
-  <si>
-    <t>Idealistic</t>
-  </si>
-  <si>
-    <t>Imaginative</t>
-  </si>
-  <si>
-    <t>Impressive</t>
-  </si>
-  <si>
-    <t>Incisive</t>
-  </si>
-  <si>
-    <t>Incorruptible</t>
-  </si>
-  <si>
-    <t>Independent</t>
-  </si>
-  <si>
-    <t>Individualistic</t>
-  </si>
-  <si>
-    <t>Innovative</t>
-  </si>
-  <si>
-    <t>Inoffensive</t>
-  </si>
-  <si>
-    <t>Insightful</t>
-  </si>
-  <si>
-    <t>Insouciant</t>
-  </si>
-  <si>
-    <t>Intelligent</t>
-  </si>
-  <si>
-    <t>Intuitive</t>
-  </si>
-  <si>
-    <t>Invulnerable</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
-    <t>Leaderly</t>
-  </si>
-  <si>
-    <t>Leisurely</t>
-  </si>
-  <si>
-    <t>Logical</t>
-  </si>
-  <si>
-    <t>Lovable</t>
-  </si>
-  <si>
-    <t>Loyal</t>
-  </si>
-  <si>
-    <t>Lyrical</t>
-  </si>
-  <si>
-    <t>Magnanimous</t>
-  </si>
-  <si>
-    <t>Many-sided</t>
-  </si>
-  <si>
-    <t>Masculine (Manly)</t>
-  </si>
-  <si>
-    <t>Mature</t>
-  </si>
-  <si>
-    <t>Methodical</t>
-  </si>
-  <si>
-    <t>Maticulous</t>
-  </si>
-  <si>
-    <t>Modest</t>
-  </si>
-  <si>
-    <t>Multi-leveled</t>
-  </si>
-  <si>
-    <t>Neat</t>
-  </si>
-  <si>
-    <t>Nonauthoritarian</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Observant</t>
-  </si>
-  <si>
-    <t>Optimistic</t>
-  </si>
-  <si>
-    <t>Orderly</t>
-  </si>
-  <si>
-    <t>Organized</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Painstaking</t>
-  </si>
-  <si>
-    <t>Passionate</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Patriotic</t>
-  </si>
-  <si>
-    <t>Peaceful</t>
-  </si>
-  <si>
-    <t>Perceptive</t>
-  </si>
-  <si>
-    <t>Perfectionist</t>
-  </si>
-  <si>
-    <t>Personable</t>
-  </si>
-  <si>
-    <t>Persuasive</t>
-  </si>
-  <si>
-    <t>Planful</t>
-  </si>
-  <si>
-    <t>Playful</t>
-  </si>
-  <si>
-    <t>Polished</t>
-  </si>
-  <si>
-    <t>Popular</t>
-  </si>
-  <si>
-    <t>Practical</t>
-  </si>
-  <si>
-    <t>Precise</t>
-  </si>
-  <si>
-    <t>Principled</t>
-  </si>
-  <si>
-    <t>Profound</t>
-  </si>
-  <si>
-    <t>Protean</t>
-  </si>
-  <si>
-    <t>Protective</t>
-  </si>
-  <si>
-    <t>Providential</t>
-  </si>
-  <si>
-    <t>Prudent</t>
-  </si>
-  <si>
-    <t>Punctual</t>
-  </si>
-  <si>
-    <t>Pruposeful</t>
-  </si>
-  <si>
-    <t>Rational</t>
-  </si>
-  <si>
-    <t>Realistic</t>
-  </si>
-  <si>
-    <t>Reflective</t>
-  </si>
-  <si>
-    <t>Relaxed</t>
-  </si>
-  <si>
-    <t>Reliable</t>
-  </si>
-  <si>
-    <t>Resourceful</t>
-  </si>
-  <si>
-    <t>Respectful</t>
-  </si>
-  <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Reverential</t>
-  </si>
-  <si>
-    <t>Romantic</t>
-  </si>
-  <si>
-    <t>Rustic</t>
-  </si>
-  <si>
-    <t>Sage</t>
-  </si>
-  <si>
-    <t>Sane</t>
-  </si>
-  <si>
-    <t>Scholarly</t>
-  </si>
-  <si>
-    <t>Scrupulous</t>
-  </si>
-  <si>
-    <t>Secure</t>
-  </si>
-  <si>
-    <t>Selfless</t>
-  </si>
-  <si>
-    <t>Self-critical</t>
-  </si>
-  <si>
-    <t>Self-defacing</t>
-  </si>
-  <si>
-    <t>Self-denying</t>
-  </si>
-  <si>
-    <t>Self-reliant</t>
-  </si>
-  <si>
-    <t>Self-sufficent</t>
-  </si>
-  <si>
-    <t>Sensitive</t>
-  </si>
-  <si>
-    <t>Sentimental</t>
-  </si>
-  <si>
-    <t>Seraphic</t>
-  </si>
-  <si>
-    <t>Serious</t>
-  </si>
-  <si>
-    <t>Sexy</t>
-  </si>
-  <si>
-    <t>Sharing</t>
-  </si>
-  <si>
-    <t>Shrewd</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Skillful</t>
-  </si>
-  <si>
-    <t>Sober</t>
-  </si>
-  <si>
-    <t>Sociable</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>Sophisticated</t>
-  </si>
-  <si>
-    <t>Spontaneous</t>
-  </si>
-  <si>
-    <t>Sporting</t>
-  </si>
-  <si>
-    <t>Stable</t>
-  </si>
-  <si>
-    <t>Steadfast</t>
-  </si>
-  <si>
-    <t>Steady</t>
-  </si>
-  <si>
-    <t>Stoic</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Studious</t>
-  </si>
-  <si>
-    <t>Suave</t>
-  </si>
-  <si>
-    <t>Subtle</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
-    <t>Sympathetic</t>
-  </si>
-  <si>
-    <t>Systematic</t>
-  </si>
-  <si>
-    <t>Tasteful</t>
-  </si>
-  <si>
-    <t>Teacherly</t>
-  </si>
-  <si>
-    <t>Thorough</t>
-  </si>
-  <si>
-    <t>Tidy</t>
-  </si>
-  <si>
-    <t>Tolerant</t>
-  </si>
-  <si>
-    <t>Tractable</t>
-  </si>
-  <si>
-    <t>Trusting</t>
-  </si>
-  <si>
-    <t>Uncomplaining</t>
-  </si>
-  <si>
-    <t>Understanding</t>
-  </si>
-  <si>
-    <t>Undogmatic</t>
-  </si>
-  <si>
-    <t>Unfoolable</t>
-  </si>
-  <si>
-    <t>Upright</t>
-  </si>
-  <si>
-    <t>Urbane</t>
-  </si>
-  <si>
-    <t>Venturesome</t>
-  </si>
-  <si>
-    <t>Vivacious</t>
-  </si>
-  <si>
-    <t>Warm</t>
-  </si>
-  <si>
-    <t>Well-bred</t>
-  </si>
-  <si>
-    <t>Well-read</t>
-  </si>
-  <si>
-    <t>Well-rounded</t>
-  </si>
-  <si>
-    <t>Winning</t>
-  </si>
-  <si>
-    <t>Wise</t>
-  </si>
-  <si>
-    <t>Witty</t>
-  </si>
-  <si>
-    <t>Youthful</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>ids</t>
-  </si>
-  <si>
-    <t>Trustworty</t>
-  </si>
-  <si>
-    <t>Principled, Reliable</t>
-  </si>
-  <si>
-    <t>user_visuals</t>
-  </si>
-  <si>
-    <t>Smart</t>
-  </si>
-  <si>
-    <t>Insightful, Perceptive</t>
-  </si>
-  <si>
     <t>Pretty/Handsome</t>
   </si>
   <si>
@@ -2647,18 +1955,30 @@
     <t>sample</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>Random fact I love</t>
   </si>
   <si>
+    <t>Personality</t>
+  </si>
+  <si>
     <t>Give me travel tips to</t>
   </si>
   <si>
+    <t>Interests</t>
+  </si>
+  <si>
     <t>We’ll get along if</t>
   </si>
   <si>
     <t>All I ask is that you</t>
   </si>
   <si>
+    <t>Expectation</t>
+  </si>
+  <si>
     <t>I’ll give you the setup, you guess the punchline</t>
   </si>
   <si>
@@ -2783,6 +2103,9 @@
   </si>
   <si>
     <t>I bet you can’t</t>
+  </si>
+  <si>
+    <t>Challenge</t>
   </si>
   <si>
     <t>Best travel story</t>
@@ -3348,7 +2671,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3400,10 +2723,16 @@
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3418,9 +2747,6 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3449,6 +2775,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10017,10 +9347,10 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B461" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C461" s="6"/>
       <c r="D461" s="7" t="b">
@@ -10030,10 +9360,10 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C462" s="6"/>
       <c r="D462" s="7" t="b">
@@ -10043,10 +9373,10 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C463" s="6"/>
       <c r="D463" s="7" t="b">
@@ -10056,10 +9386,10 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C464" s="6"/>
       <c r="D464" s="7" t="b">
@@ -10069,10 +9399,10 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C465" s="6"/>
       <c r="D465" s="7" t="b">
@@ -10082,10 +9412,10 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C466" s="6"/>
       <c r="D466" s="7" t="b">
@@ -10095,10 +9425,10 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C467" s="6"/>
       <c r="D467" s="7" t="b">
@@ -10108,10 +9438,10 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C468" s="6"/>
       <c r="D468" s="7" t="b">
@@ -10121,10 +9451,10 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C469" s="6"/>
       <c r="D469" s="7" t="b">
@@ -10134,10 +9464,10 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C470" s="6"/>
       <c r="D470" s="7" t="b">
@@ -10147,10 +9477,10 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="6" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="7" t="b">
@@ -10160,10 +9490,10 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="C472" s="6"/>
       <c r="D472" s="7" t="b">
@@ -10173,10 +9503,10 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="6" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C473" s="6"/>
       <c r="D473" s="7" t="b">
@@ -10186,10 +9516,10 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="6" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C474" s="6"/>
       <c r="D474" s="7" t="b">
@@ -10197,3952 +9527,216 @@
       </c>
       <c r="E474" s="6"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
-      <c r="A475" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C475" s="6"/>
-      <c r="D475" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E475" s="6"/>
-    </row>
-    <row r="476" ht="14.25" customHeight="1">
-      <c r="A476" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C476" s="6"/>
-      <c r="D476" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E476" s="6"/>
-    </row>
-    <row r="477" ht="14.25" customHeight="1">
-      <c r="A477" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="C477" s="6"/>
-      <c r="D477" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E477" s="6"/>
-    </row>
-    <row r="478" ht="14.25" customHeight="1">
-      <c r="A478" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C478" s="6"/>
-      <c r="D478" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E478" s="6"/>
-    </row>
-    <row r="479" ht="14.25" customHeight="1">
-      <c r="A479" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C479" s="6"/>
-      <c r="D479" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E479" s="6"/>
-    </row>
-    <row r="480" ht="14.25" customHeight="1">
-      <c r="A480" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="C480" s="6"/>
-      <c r="D480" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E480" s="6"/>
-    </row>
-    <row r="481" ht="14.25" customHeight="1">
-      <c r="A481" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C481" s="6"/>
-      <c r="D481" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E481" s="6"/>
-    </row>
-    <row r="482" ht="14.25" customHeight="1">
-      <c r="A482" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C482" s="6"/>
-      <c r="D482" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E482" s="6"/>
-    </row>
-    <row r="483" ht="14.25" customHeight="1">
-      <c r="A483" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C483" s="6"/>
-      <c r="D483" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E483" s="6"/>
-    </row>
-    <row r="484" ht="14.25" customHeight="1">
-      <c r="A484" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="C484" s="6"/>
-      <c r="D484" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E484" s="6"/>
-    </row>
-    <row r="485" ht="14.25" customHeight="1">
-      <c r="A485" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C485" s="6"/>
-      <c r="D485" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E485" s="6"/>
-    </row>
-    <row r="486" ht="14.25" customHeight="1">
-      <c r="A486" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C486" s="6"/>
-      <c r="D486" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E486" s="6"/>
-    </row>
-    <row r="487" ht="14.25" customHeight="1">
-      <c r="A487" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="C487" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D487" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E487" s="6"/>
-    </row>
-    <row r="488" ht="14.25" customHeight="1">
-      <c r="A488" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B488" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C488" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D488" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E488" s="6"/>
-    </row>
-    <row r="489" ht="14.25" customHeight="1">
-      <c r="A489" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C489" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="D489" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E489" s="6"/>
-    </row>
-    <row r="490" ht="14.25" customHeight="1">
-      <c r="A490" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B490" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C490" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D490" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E490" s="6"/>
-    </row>
-    <row r="491" ht="14.25" customHeight="1">
-      <c r="A491" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C491" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D491" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E491" s="6"/>
-    </row>
-    <row r="492" ht="14.25" customHeight="1">
-      <c r="A492" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="C492" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D492" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E492" s="6"/>
-    </row>
-    <row r="493" ht="14.25" customHeight="1">
-      <c r="A493" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C493" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="D493" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E493" s="6"/>
-    </row>
-    <row r="494" ht="14.25" customHeight="1">
-      <c r="A494" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B494" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="C494" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="D494" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E494" s="6"/>
-    </row>
-    <row r="495" ht="14.25" customHeight="1">
-      <c r="A495" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B495" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C495" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="D495" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E495" s="6"/>
-    </row>
-    <row r="496" ht="14.25" customHeight="1">
-      <c r="A496" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B496" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C496" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="D496" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E496" s="6"/>
-    </row>
-    <row r="497" ht="14.25" customHeight="1">
-      <c r="A497" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B497" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C497" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="D497" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E497" s="6"/>
-    </row>
-    <row r="498" ht="14.25" customHeight="1">
-      <c r="A498" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B498" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="C498" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="D498" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E498" s="6"/>
-    </row>
-    <row r="499" ht="14.25" customHeight="1">
-      <c r="A499" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B499" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C499" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="D499" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E499" s="6"/>
-    </row>
-    <row r="500" ht="14.25" customHeight="1">
-      <c r="A500" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B500" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C500" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="D500" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E500" s="6"/>
-    </row>
-    <row r="501" ht="14.25" customHeight="1">
-      <c r="A501" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B501" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C501" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="D501" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E501" s="6"/>
-    </row>
-    <row r="502" ht="14.25" customHeight="1">
-      <c r="A502" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B502" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="C502" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="D502" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E502" s="6"/>
-    </row>
-    <row r="503" ht="14.25" customHeight="1">
-      <c r="A503" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="C503" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="D503" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E503" s="6"/>
-    </row>
-    <row r="504" ht="14.25" customHeight="1">
-      <c r="A504" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B504" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C504" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="D504" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E504" s="6"/>
-    </row>
-    <row r="505" ht="14.25" customHeight="1">
-      <c r="A505" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B505" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C505" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="D505" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E505" s="6"/>
-    </row>
-    <row r="506" ht="14.25" customHeight="1">
-      <c r="A506" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B506" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="C506" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="D506" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E506" s="6"/>
-    </row>
-    <row r="507" ht="14.25" customHeight="1">
-      <c r="A507" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B507" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C507" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="D507" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E507" s="6"/>
-    </row>
-    <row r="508" ht="14.25" customHeight="1">
-      <c r="A508" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B508" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C508" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="D508" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E508" s="6"/>
-    </row>
-    <row r="509" ht="14.25" customHeight="1">
-      <c r="A509" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B509" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C509" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="D509" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E509" s="6"/>
-    </row>
-    <row r="510" ht="14.25" customHeight="1">
-      <c r="A510" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B510" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C510" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="D510" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E510" s="6"/>
-    </row>
-    <row r="511" ht="14.25" customHeight="1">
-      <c r="A511" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C511" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="D511" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E511" s="6"/>
-    </row>
-    <row r="512" ht="14.25" customHeight="1">
-      <c r="A512" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B512" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C512" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="D512" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E512" s="6"/>
-    </row>
-    <row r="513" ht="14.25" customHeight="1">
-      <c r="A513" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C513" s="12">
-        <v>27.0</v>
-      </c>
-      <c r="D513" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E513" s="6"/>
-    </row>
-    <row r="514" ht="14.25" customHeight="1">
-      <c r="A514" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B514" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C514" s="12">
-        <v>28.0</v>
-      </c>
-      <c r="D514" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E514" s="6"/>
-    </row>
-    <row r="515" ht="14.25" customHeight="1">
-      <c r="A515" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B515" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C515" s="12">
-        <v>29.0</v>
-      </c>
-      <c r="D515" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E515" s="6"/>
-    </row>
-    <row r="516" ht="14.25" customHeight="1">
-      <c r="A516" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B516" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C516" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="D516" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E516" s="6"/>
-    </row>
-    <row r="517" ht="14.25" customHeight="1">
-      <c r="A517" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B517" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C517" s="12">
-        <v>31.0</v>
-      </c>
-      <c r="D517" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E517" s="6"/>
-    </row>
-    <row r="518" ht="14.25" customHeight="1">
-      <c r="A518" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B518" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C518" s="12">
-        <v>32.0</v>
-      </c>
-      <c r="D518" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E518" s="6"/>
-    </row>
-    <row r="519" ht="14.25" customHeight="1">
-      <c r="A519" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C519" s="12">
-        <v>33.0</v>
-      </c>
-      <c r="D519" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E519" s="6"/>
-    </row>
-    <row r="520" ht="14.25" customHeight="1">
-      <c r="A520" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B520" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C520" s="12">
-        <v>34.0</v>
-      </c>
-      <c r="D520" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E520" s="6"/>
-    </row>
-    <row r="521" ht="14.25" customHeight="1">
-      <c r="A521" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C521" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="D521" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E521" s="6"/>
-    </row>
-    <row r="522" ht="14.25" customHeight="1">
-      <c r="A522" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B522" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="C522" s="12">
-        <v>36.0</v>
-      </c>
-      <c r="D522" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E522" s="6"/>
-    </row>
-    <row r="523" ht="14.25" customHeight="1">
-      <c r="A523" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C523" s="12">
-        <v>37.0</v>
-      </c>
-      <c r="D523" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E523" s="6"/>
-    </row>
-    <row r="524" ht="14.25" customHeight="1">
-      <c r="A524" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B524" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C524" s="12">
-        <v>38.0</v>
-      </c>
-      <c r="D524" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E524" s="6"/>
-    </row>
-    <row r="525" ht="14.25" customHeight="1">
-      <c r="A525" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B525" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C525" s="12">
-        <v>39.0</v>
-      </c>
-      <c r="D525" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E525" s="6"/>
-    </row>
-    <row r="526" ht="14.25" customHeight="1">
-      <c r="A526" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B526" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C526" s="12">
-        <v>40.0</v>
-      </c>
-      <c r="D526" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E526" s="6"/>
-    </row>
-    <row r="527" ht="14.25" customHeight="1">
-      <c r="A527" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C527" s="12">
-        <v>41.0</v>
-      </c>
-      <c r="D527" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E527" s="6"/>
-    </row>
-    <row r="528" ht="14.25" customHeight="1">
-      <c r="A528" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B528" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C528" s="12">
-        <v>42.0</v>
-      </c>
-      <c r="D528" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E528" s="6"/>
-    </row>
-    <row r="529" ht="14.25" customHeight="1">
-      <c r="A529" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B529" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C529" s="12">
-        <v>43.0</v>
-      </c>
-      <c r="D529" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E529" s="6"/>
-    </row>
-    <row r="530" ht="14.25" customHeight="1">
-      <c r="A530" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B530" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C530" s="12">
-        <v>44.0</v>
-      </c>
-      <c r="D530" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E530" s="6"/>
-    </row>
-    <row r="531" ht="14.25" customHeight="1">
-      <c r="A531" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C531" s="12">
-        <v>45.0</v>
-      </c>
-      <c r="D531" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E531" s="6"/>
-    </row>
-    <row r="532" ht="14.25" customHeight="1">
-      <c r="A532" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B532" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C532" s="12">
-        <v>46.0</v>
-      </c>
-      <c r="D532" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E532" s="6"/>
-    </row>
-    <row r="533" ht="14.25" customHeight="1">
-      <c r="A533" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C533" s="12">
-        <v>47.0</v>
-      </c>
-      <c r="D533" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E533" s="6"/>
-    </row>
-    <row r="534" ht="14.25" customHeight="1">
-      <c r="A534" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B534" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C534" s="12">
-        <v>48.0</v>
-      </c>
-      <c r="D534" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E534" s="6"/>
-    </row>
-    <row r="535" ht="14.25" customHeight="1">
-      <c r="A535" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B535" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C535" s="12">
-        <v>49.0</v>
-      </c>
-      <c r="D535" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E535" s="6"/>
-    </row>
-    <row r="536" ht="14.25" customHeight="1">
-      <c r="A536" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B536" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="C536" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="D536" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E536" s="6"/>
-    </row>
-    <row r="537" ht="14.25" customHeight="1">
-      <c r="A537" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B537" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C537" s="12">
-        <v>51.0</v>
-      </c>
-      <c r="D537" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E537" s="6"/>
-    </row>
-    <row r="538" ht="14.25" customHeight="1">
-      <c r="A538" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B538" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="C538" s="12">
-        <v>52.0</v>
-      </c>
-      <c r="D538" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E538" s="6"/>
-    </row>
-    <row r="539" ht="14.25" customHeight="1">
-      <c r="A539" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B539" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C539" s="12">
-        <v>53.0</v>
-      </c>
-      <c r="D539" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E539" s="6"/>
-    </row>
-    <row r="540" ht="14.25" customHeight="1">
-      <c r="A540" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B540" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C540" s="12">
-        <v>54.0</v>
-      </c>
-      <c r="D540" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E540" s="6"/>
-    </row>
-    <row r="541" ht="14.25" customHeight="1">
-      <c r="A541" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B541" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="C541" s="12">
-        <v>55.0</v>
-      </c>
-      <c r="D541" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E541" s="6"/>
-    </row>
-    <row r="542" ht="14.25" customHeight="1">
-      <c r="A542" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B542" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C542" s="12">
-        <v>56.0</v>
-      </c>
-      <c r="D542" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E542" s="6"/>
-    </row>
-    <row r="543" ht="14.25" customHeight="1">
-      <c r="A543" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B543" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C543" s="12">
-        <v>57.0</v>
-      </c>
-      <c r="D543" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E543" s="6"/>
-    </row>
-    <row r="544" ht="14.25" customHeight="1">
-      <c r="A544" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B544" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="C544" s="12">
-        <v>58.0</v>
-      </c>
-      <c r="D544" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E544" s="6"/>
-    </row>
-    <row r="545" ht="14.25" customHeight="1">
-      <c r="A545" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B545" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="C545" s="12">
-        <v>59.0</v>
-      </c>
-      <c r="D545" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E545" s="6"/>
-    </row>
-    <row r="546" ht="14.25" customHeight="1">
-      <c r="A546" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B546" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C546" s="12">
-        <v>60.0</v>
-      </c>
-      <c r="D546" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E546" s="6"/>
-    </row>
-    <row r="547" ht="14.25" customHeight="1">
-      <c r="A547" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B547" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="C547" s="12">
-        <v>61.0</v>
-      </c>
-      <c r="D547" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E547" s="6"/>
-    </row>
-    <row r="548" ht="14.25" customHeight="1">
-      <c r="A548" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B548" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C548" s="12">
-        <v>62.0</v>
-      </c>
-      <c r="D548" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E548" s="6"/>
-    </row>
-    <row r="549" ht="14.25" customHeight="1">
-      <c r="A549" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="C549" s="12">
-        <v>63.0</v>
-      </c>
-      <c r="D549" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E549" s="6"/>
-    </row>
-    <row r="550" ht="14.25" customHeight="1">
-      <c r="A550" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B550" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C550" s="12">
-        <v>64.0</v>
-      </c>
-      <c r="D550" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E550" s="6"/>
-    </row>
-    <row r="551" ht="14.25" customHeight="1">
-      <c r="A551" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B551" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="C551" s="12">
-        <v>65.0</v>
-      </c>
-      <c r="D551" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E551" s="6"/>
-    </row>
-    <row r="552" ht="14.25" customHeight="1">
-      <c r="A552" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B552" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C552" s="12">
-        <v>66.0</v>
-      </c>
-      <c r="D552" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E552" s="6"/>
-    </row>
-    <row r="553" ht="14.25" customHeight="1">
-      <c r="A553" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C553" s="12">
-        <v>67.0</v>
-      </c>
-      <c r="D553" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E553" s="6"/>
-    </row>
-    <row r="554" ht="14.25" customHeight="1">
-      <c r="A554" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B554" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C554" s="12">
-        <v>68.0</v>
-      </c>
-      <c r="D554" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E554" s="6"/>
-    </row>
-    <row r="555" ht="14.25" customHeight="1">
-      <c r="A555" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C555" s="12">
-        <v>69.0</v>
-      </c>
-      <c r="D555" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E555" s="6"/>
-    </row>
-    <row r="556" ht="14.25" customHeight="1">
-      <c r="A556" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B556" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C556" s="12">
-        <v>70.0</v>
-      </c>
-      <c r="D556" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E556" s="6"/>
-    </row>
-    <row r="557" ht="14.25" customHeight="1">
-      <c r="A557" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B557" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C557" s="12">
-        <v>71.0</v>
-      </c>
-      <c r="D557" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E557" s="6"/>
-    </row>
-    <row r="558" ht="14.25" customHeight="1">
-      <c r="A558" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B558" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C558" s="12">
-        <v>72.0</v>
-      </c>
-      <c r="D558" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E558" s="6"/>
-    </row>
-    <row r="559" ht="14.25" customHeight="1">
-      <c r="A559" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C559" s="12">
-        <v>73.0</v>
-      </c>
-      <c r="D559" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E559" s="6"/>
-    </row>
-    <row r="560" ht="14.25" customHeight="1">
-      <c r="A560" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B560" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C560" s="12">
-        <v>74.0</v>
-      </c>
-      <c r="D560" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E560" s="6"/>
-    </row>
-    <row r="561" ht="14.25" customHeight="1">
-      <c r="A561" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C561" s="12">
-        <v>75.0</v>
-      </c>
-      <c r="D561" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E561" s="6"/>
-    </row>
-    <row r="562" ht="14.25" customHeight="1">
-      <c r="A562" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B562" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C562" s="12">
-        <v>76.0</v>
-      </c>
-      <c r="D562" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E562" s="6"/>
-    </row>
-    <row r="563" ht="14.25" customHeight="1">
-      <c r="A563" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C563" s="12">
-        <v>77.0</v>
-      </c>
-      <c r="D563" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E563" s="6"/>
-    </row>
-    <row r="564" ht="14.25" customHeight="1">
-      <c r="A564" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B564" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C564" s="12">
-        <v>78.0</v>
-      </c>
-      <c r="D564" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E564" s="6"/>
-    </row>
-    <row r="565" ht="14.25" customHeight="1">
-      <c r="A565" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="C565" s="12">
-        <v>79.0</v>
-      </c>
-      <c r="D565" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E565" s="6"/>
-    </row>
-    <row r="566" ht="14.25" customHeight="1">
-      <c r="A566" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B566" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="C566" s="12">
-        <v>80.0</v>
-      </c>
-      <c r="D566" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E566" s="6"/>
-    </row>
-    <row r="567" ht="14.25" customHeight="1">
-      <c r="A567" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="C567" s="12">
-        <v>81.0</v>
-      </c>
-      <c r="D567" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E567" s="6"/>
-    </row>
-    <row r="568" ht="14.25" customHeight="1">
-      <c r="A568" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B568" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C568" s="12">
-        <v>82.0</v>
-      </c>
-      <c r="D568" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E568" s="6"/>
-    </row>
-    <row r="569" ht="14.25" customHeight="1">
-      <c r="A569" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="C569" s="12">
-        <v>83.0</v>
-      </c>
-      <c r="D569" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E569" s="6"/>
-    </row>
-    <row r="570" ht="14.25" customHeight="1">
-      <c r="A570" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B570" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="C570" s="12">
-        <v>84.0</v>
-      </c>
-      <c r="D570" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E570" s="6"/>
-    </row>
-    <row r="571" ht="14.25" customHeight="1">
-      <c r="A571" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C571" s="12">
-        <v>85.0</v>
-      </c>
-      <c r="D571" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E571" s="6"/>
-    </row>
-    <row r="572" ht="14.25" customHeight="1">
-      <c r="A572" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B572" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C572" s="12">
-        <v>86.0</v>
-      </c>
-      <c r="D572" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E572" s="6"/>
-    </row>
-    <row r="573" ht="14.25" customHeight="1">
-      <c r="A573" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C573" s="12">
-        <v>87.0</v>
-      </c>
-      <c r="D573" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E573" s="6"/>
-    </row>
-    <row r="574" ht="14.25" customHeight="1">
-      <c r="A574" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B574" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="C574" s="12">
-        <v>88.0</v>
-      </c>
-      <c r="D574" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E574" s="6"/>
-    </row>
-    <row r="575" ht="14.25" customHeight="1">
-      <c r="A575" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C575" s="12">
-        <v>89.0</v>
-      </c>
-      <c r="D575" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E575" s="6"/>
-    </row>
-    <row r="576" ht="14.25" customHeight="1">
-      <c r="A576" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B576" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C576" s="12">
-        <v>90.0</v>
-      </c>
-      <c r="D576" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E576" s="6"/>
-    </row>
-    <row r="577" ht="14.25" customHeight="1">
-      <c r="A577" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C577" s="12">
-        <v>91.0</v>
-      </c>
-      <c r="D577" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E577" s="6"/>
-    </row>
-    <row r="578" ht="14.25" customHeight="1">
-      <c r="A578" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B578" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C578" s="12">
-        <v>92.0</v>
-      </c>
-      <c r="D578" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E578" s="6"/>
-    </row>
-    <row r="579" ht="14.25" customHeight="1">
-      <c r="A579" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C579" s="12">
-        <v>93.0</v>
-      </c>
-      <c r="D579" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E579" s="6"/>
-    </row>
-    <row r="580" ht="14.25" customHeight="1">
-      <c r="A580" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B580" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="C580" s="12">
-        <v>94.0</v>
-      </c>
-      <c r="D580" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E580" s="6"/>
-    </row>
-    <row r="581" ht="14.25" customHeight="1">
-      <c r="A581" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="C581" s="12">
-        <v>95.0</v>
-      </c>
-      <c r="D581" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E581" s="6"/>
-    </row>
-    <row r="582" ht="14.25" customHeight="1">
-      <c r="A582" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B582" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="C582" s="12">
-        <v>96.0</v>
-      </c>
-      <c r="D582" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E582" s="6"/>
-    </row>
-    <row r="583" ht="14.25" customHeight="1">
-      <c r="A583" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C583" s="12">
-        <v>97.0</v>
-      </c>
-      <c r="D583" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E583" s="6"/>
-    </row>
-    <row r="584" ht="14.25" customHeight="1">
-      <c r="A584" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B584" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="C584" s="12">
-        <v>98.0</v>
-      </c>
-      <c r="D584" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E584" s="6"/>
-    </row>
-    <row r="585" ht="14.25" customHeight="1">
-      <c r="A585" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="C585" s="12">
-        <v>99.0</v>
-      </c>
-      <c r="D585" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E585" s="6"/>
-    </row>
-    <row r="586" ht="14.25" customHeight="1">
-      <c r="A586" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B586" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C586" s="12">
-        <v>100.0</v>
-      </c>
-      <c r="D586" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E586" s="6"/>
-    </row>
-    <row r="587" ht="14.25" customHeight="1">
-      <c r="A587" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C587" s="12">
-        <v>101.0</v>
-      </c>
-      <c r="D587" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E587" s="6"/>
-    </row>
-    <row r="588" ht="14.25" customHeight="1">
-      <c r="A588" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B588" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="C588" s="12">
-        <v>102.0</v>
-      </c>
-      <c r="D588" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E588" s="6"/>
-    </row>
-    <row r="589" ht="14.25" customHeight="1">
-      <c r="A589" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="C589" s="12">
-        <v>103.0</v>
-      </c>
-      <c r="D589" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E589" s="6"/>
-    </row>
-    <row r="590" ht="14.25" customHeight="1">
-      <c r="A590" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B590" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="C590" s="12">
-        <v>104.0</v>
-      </c>
-      <c r="D590" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E590" s="6"/>
-    </row>
-    <row r="591" ht="14.25" customHeight="1">
-      <c r="A591" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C591" s="12">
-        <v>105.0</v>
-      </c>
-      <c r="D591" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E591" s="6"/>
-    </row>
-    <row r="592" ht="14.25" customHeight="1">
-      <c r="A592" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B592" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="C592" s="12">
-        <v>106.0</v>
-      </c>
-      <c r="D592" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E592" s="6"/>
-    </row>
-    <row r="593" ht="14.25" customHeight="1">
-      <c r="A593" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C593" s="12">
-        <v>107.0</v>
-      </c>
-      <c r="D593" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E593" s="6"/>
-    </row>
-    <row r="594" ht="14.25" customHeight="1">
-      <c r="A594" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B594" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="C594" s="12">
-        <v>108.0</v>
-      </c>
-      <c r="D594" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E594" s="6"/>
-    </row>
-    <row r="595" ht="14.25" customHeight="1">
-      <c r="A595" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C595" s="12">
-        <v>109.0</v>
-      </c>
-      <c r="D595" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E595" s="6"/>
-    </row>
-    <row r="596" ht="14.25" customHeight="1">
-      <c r="A596" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B596" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="C596" s="12">
-        <v>110.0</v>
-      </c>
-      <c r="D596" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E596" s="6"/>
-    </row>
-    <row r="597" ht="14.25" customHeight="1">
-      <c r="A597" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C597" s="12">
-        <v>111.0</v>
-      </c>
-      <c r="D597" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E597" s="6"/>
-    </row>
-    <row r="598" ht="14.25" customHeight="1">
-      <c r="A598" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B598" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="C598" s="12">
-        <v>112.0</v>
-      </c>
-      <c r="D598" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E598" s="6"/>
-    </row>
-    <row r="599" ht="14.25" customHeight="1">
-      <c r="A599" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B599" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C599" s="12">
-        <v>113.0</v>
-      </c>
-      <c r="D599" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E599" s="6"/>
-    </row>
-    <row r="600" ht="14.25" customHeight="1">
-      <c r="A600" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B600" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="C600" s="12">
-        <v>114.0</v>
-      </c>
-      <c r="D600" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E600" s="6"/>
-    </row>
-    <row r="601" ht="14.25" customHeight="1">
-      <c r="A601" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B601" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C601" s="12">
-        <v>115.0</v>
-      </c>
-      <c r="D601" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E601" s="6"/>
-    </row>
-    <row r="602" ht="14.25" customHeight="1">
-      <c r="A602" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B602" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="C602" s="12">
-        <v>116.0</v>
-      </c>
-      <c r="D602" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E602" s="6"/>
-    </row>
-    <row r="603" ht="14.25" customHeight="1">
-      <c r="A603" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B603" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C603" s="12">
-        <v>117.0</v>
-      </c>
-      <c r="D603" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E603" s="6"/>
-    </row>
-    <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B604" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C604" s="12">
-        <v>118.0</v>
-      </c>
-      <c r="D604" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E604" s="6"/>
-    </row>
-    <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B605" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="C605" s="12">
-        <v>119.0</v>
-      </c>
-      <c r="D605" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E605" s="6"/>
-    </row>
-    <row r="606" ht="14.25" customHeight="1">
-      <c r="A606" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B606" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="C606" s="12">
-        <v>120.0</v>
-      </c>
-      <c r="D606" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E606" s="6"/>
-    </row>
-    <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B607" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="C607" s="12">
-        <v>121.0</v>
-      </c>
-      <c r="D607" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E607" s="6"/>
-    </row>
-    <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B608" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C608" s="12">
-        <v>122.0</v>
-      </c>
-      <c r="D608" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E608" s="6"/>
-    </row>
-    <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B609" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="C609" s="12">
-        <v>123.0</v>
-      </c>
-      <c r="D609" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E609" s="6"/>
-    </row>
-    <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B610" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C610" s="12">
-        <v>124.0</v>
-      </c>
-      <c r="D610" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E610" s="6"/>
-    </row>
-    <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B611" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="C611" s="12">
-        <v>125.0</v>
-      </c>
-      <c r="D611" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E611" s="6"/>
-    </row>
-    <row r="612" ht="14.25" customHeight="1">
-      <c r="A612" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B612" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C612" s="12">
-        <v>126.0</v>
-      </c>
-      <c r="D612" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E612" s="6"/>
-    </row>
-    <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B613" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="C613" s="12">
-        <v>127.0</v>
-      </c>
-      <c r="D613" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E613" s="6"/>
-    </row>
-    <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B614" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C614" s="12">
-        <v>128.0</v>
-      </c>
-      <c r="D614" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E614" s="6"/>
-    </row>
-    <row r="615" ht="14.25" customHeight="1">
-      <c r="A615" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B615" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C615" s="12">
-        <v>129.0</v>
-      </c>
-      <c r="D615" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" s="6"/>
-    </row>
-    <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B616" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C616" s="12">
-        <v>130.0</v>
-      </c>
-      <c r="D616" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E616" s="6"/>
-    </row>
-    <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B617" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C617" s="12">
-        <v>131.0</v>
-      </c>
-      <c r="D617" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E617" s="6"/>
-    </row>
-    <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B618" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="C618" s="12">
-        <v>132.0</v>
-      </c>
-      <c r="D618" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E618" s="6"/>
-    </row>
-    <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B619" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="C619" s="12">
-        <v>133.0</v>
-      </c>
-      <c r="D619" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E619" s="6"/>
-    </row>
-    <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B620" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="C620" s="12">
-        <v>134.0</v>
-      </c>
-      <c r="D620" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E620" s="6"/>
-    </row>
-    <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B621" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C621" s="12">
-        <v>135.0</v>
-      </c>
-      <c r="D621" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E621" s="6"/>
-    </row>
-    <row r="622" ht="14.25" customHeight="1">
-      <c r="A622" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B622" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C622" s="12">
-        <v>136.0</v>
-      </c>
-      <c r="D622" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E622" s="6"/>
-    </row>
-    <row r="623" ht="14.25" customHeight="1">
-      <c r="A623" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B623" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C623" s="12">
-        <v>137.0</v>
-      </c>
-      <c r="D623" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E623" s="6"/>
-    </row>
-    <row r="624" ht="14.25" customHeight="1">
-      <c r="A624" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B624" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C624" s="12">
-        <v>138.0</v>
-      </c>
-      <c r="D624" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E624" s="6"/>
-    </row>
-    <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B625" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="C625" s="12">
-        <v>139.0</v>
-      </c>
-      <c r="D625" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E625" s="6"/>
-    </row>
-    <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B626" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C626" s="12">
-        <v>140.0</v>
-      </c>
-      <c r="D626" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E626" s="6"/>
-    </row>
-    <row r="627" ht="14.25" customHeight="1">
-      <c r="A627" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B627" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="C627" s="12">
-        <v>141.0</v>
-      </c>
-      <c r="D627" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E627" s="6"/>
-    </row>
-    <row r="628" ht="14.25" customHeight="1">
-      <c r="A628" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B628" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C628" s="12">
-        <v>142.0</v>
-      </c>
-      <c r="D628" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E628" s="6"/>
-    </row>
-    <row r="629" ht="14.25" customHeight="1">
-      <c r="A629" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B629" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="C629" s="12">
-        <v>143.0</v>
-      </c>
-      <c r="D629" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E629" s="6"/>
-    </row>
-    <row r="630" ht="14.25" customHeight="1">
-      <c r="A630" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B630" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="C630" s="12">
-        <v>144.0</v>
-      </c>
-      <c r="D630" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E630" s="6"/>
-    </row>
-    <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B631" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C631" s="12">
-        <v>145.0</v>
-      </c>
-      <c r="D631" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E631" s="6"/>
-    </row>
-    <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B632" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="C632" s="12">
-        <v>146.0</v>
-      </c>
-      <c r="D632" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E632" s="6"/>
-    </row>
-    <row r="633" ht="14.25" customHeight="1">
-      <c r="A633" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B633" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="C633" s="12">
-        <v>147.0</v>
-      </c>
-      <c r="D633" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E633" s="6"/>
-    </row>
-    <row r="634" ht="14.25" customHeight="1">
-      <c r="A634" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B634" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C634" s="12">
-        <v>148.0</v>
-      </c>
-      <c r="D634" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E634" s="6"/>
-    </row>
-    <row r="635" ht="14.25" customHeight="1">
-      <c r="A635" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B635" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="C635" s="12">
-        <v>149.0</v>
-      </c>
-      <c r="D635" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E635" s="6"/>
-    </row>
-    <row r="636" ht="14.25" customHeight="1">
-      <c r="A636" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B636" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="C636" s="12">
-        <v>150.0</v>
-      </c>
-      <c r="D636" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E636" s="6"/>
-    </row>
-    <row r="637" ht="14.25" customHeight="1">
-      <c r="A637" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B637" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="C637" s="12">
-        <v>151.0</v>
-      </c>
-      <c r="D637" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E637" s="6"/>
-    </row>
-    <row r="638" ht="14.25" customHeight="1">
-      <c r="A638" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B638" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C638" s="12">
-        <v>152.0</v>
-      </c>
-      <c r="D638" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" s="6"/>
-    </row>
-    <row r="639" ht="14.25" customHeight="1">
-      <c r="A639" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B639" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="C639" s="12">
-        <v>153.0</v>
-      </c>
-      <c r="D639" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E639" s="6"/>
-    </row>
-    <row r="640" ht="14.25" customHeight="1">
-      <c r="A640" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B640" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="C640" s="12">
-        <v>154.0</v>
-      </c>
-      <c r="D640" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E640" s="6"/>
-    </row>
-    <row r="641" ht="14.25" customHeight="1">
-      <c r="A641" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B641" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C641" s="12">
-        <v>155.0</v>
-      </c>
-      <c r="D641" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E641" s="6"/>
-    </row>
-    <row r="642" ht="14.25" customHeight="1">
-      <c r="A642" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B642" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C642" s="12">
-        <v>156.0</v>
-      </c>
-      <c r="D642" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E642" s="6"/>
-    </row>
-    <row r="643" ht="14.25" customHeight="1">
-      <c r="A643" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B643" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="C643" s="12">
-        <v>157.0</v>
-      </c>
-      <c r="D643" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E643" s="6"/>
-    </row>
-    <row r="644" ht="14.25" customHeight="1">
-      <c r="A644" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B644" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="C644" s="12">
-        <v>158.0</v>
-      </c>
-      <c r="D644" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E644" s="6"/>
-    </row>
-    <row r="645" ht="14.25" customHeight="1">
-      <c r="A645" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B645" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="C645" s="12">
-        <v>159.0</v>
-      </c>
-      <c r="D645" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E645" s="6"/>
-    </row>
-    <row r="646" ht="14.25" customHeight="1">
-      <c r="A646" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B646" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="C646" s="12">
-        <v>160.0</v>
-      </c>
-      <c r="D646" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E646" s="6"/>
-    </row>
-    <row r="647" ht="14.25" customHeight="1">
-      <c r="A647" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B647" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="C647" s="12">
-        <v>161.0</v>
-      </c>
-      <c r="D647" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E647" s="6"/>
-    </row>
-    <row r="648" ht="14.25" customHeight="1">
-      <c r="A648" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B648" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="C648" s="12">
-        <v>162.0</v>
-      </c>
-      <c r="D648" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E648" s="6"/>
-    </row>
-    <row r="649" ht="14.25" customHeight="1">
-      <c r="A649" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B649" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="C649" s="12">
-        <v>163.0</v>
-      </c>
-      <c r="D649" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E649" s="6"/>
-    </row>
-    <row r="650" ht="14.25" customHeight="1">
-      <c r="A650" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B650" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="C650" s="12">
-        <v>164.0</v>
-      </c>
-      <c r="D650" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E650" s="6"/>
-    </row>
-    <row r="651" ht="14.25" customHeight="1">
-      <c r="A651" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B651" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="C651" s="12">
-        <v>165.0</v>
-      </c>
-      <c r="D651" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E651" s="6"/>
-    </row>
-    <row r="652" ht="14.25" customHeight="1">
-      <c r="A652" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B652" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C652" s="12">
-        <v>166.0</v>
-      </c>
-      <c r="D652" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E652" s="6"/>
-    </row>
-    <row r="653" ht="14.25" customHeight="1">
-      <c r="A653" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B653" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="C653" s="12">
-        <v>167.0</v>
-      </c>
-      <c r="D653" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E653" s="6"/>
-    </row>
-    <row r="654" ht="14.25" customHeight="1">
-      <c r="A654" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B654" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C654" s="12">
-        <v>168.0</v>
-      </c>
-      <c r="D654" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E654" s="6"/>
-    </row>
-    <row r="655" ht="14.25" customHeight="1">
-      <c r="A655" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B655" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="C655" s="12">
-        <v>169.0</v>
-      </c>
-      <c r="D655" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E655" s="6"/>
-    </row>
-    <row r="656" ht="14.25" customHeight="1">
-      <c r="A656" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B656" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C656" s="12">
-        <v>170.0</v>
-      </c>
-      <c r="D656" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E656" s="6"/>
-    </row>
-    <row r="657" ht="14.25" customHeight="1">
-      <c r="A657" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B657" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C657" s="12">
-        <v>171.0</v>
-      </c>
-      <c r="D657" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E657" s="6"/>
-    </row>
-    <row r="658" ht="14.25" customHeight="1">
-      <c r="A658" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B658" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="C658" s="12">
-        <v>172.0</v>
-      </c>
-      <c r="D658" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E658" s="6"/>
-    </row>
-    <row r="659" ht="14.25" customHeight="1">
-      <c r="A659" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B659" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="C659" s="12">
-        <v>173.0</v>
-      </c>
-      <c r="D659" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E659" s="6"/>
-    </row>
-    <row r="660" ht="14.25" customHeight="1">
-      <c r="A660" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B660" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C660" s="12">
-        <v>174.0</v>
-      </c>
-      <c r="D660" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E660" s="6"/>
-    </row>
-    <row r="661" ht="14.25" customHeight="1">
-      <c r="A661" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B661" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="C661" s="12">
-        <v>175.0</v>
-      </c>
-      <c r="D661" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E661" s="6"/>
-    </row>
-    <row r="662" ht="14.25" customHeight="1">
-      <c r="A662" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B662" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C662" s="12">
-        <v>176.0</v>
-      </c>
-      <c r="D662" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E662" s="6"/>
-    </row>
-    <row r="663" ht="14.25" customHeight="1">
-      <c r="A663" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B663" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="C663" s="12">
-        <v>177.0</v>
-      </c>
-      <c r="D663" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E663" s="6"/>
-    </row>
-    <row r="664" ht="14.25" customHeight="1">
-      <c r="A664" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B664" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C664" s="12">
-        <v>178.0</v>
-      </c>
-      <c r="D664" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E664" s="6"/>
-    </row>
-    <row r="665" ht="14.25" customHeight="1">
-      <c r="A665" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B665" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="C665" s="12">
-        <v>179.0</v>
-      </c>
-      <c r="D665" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E665" s="6"/>
-    </row>
-    <row r="666" ht="14.25" customHeight="1">
-      <c r="A666" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B666" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="C666" s="12">
-        <v>180.0</v>
-      </c>
-      <c r="D666" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E666" s="6"/>
-    </row>
-    <row r="667" ht="14.25" customHeight="1">
-      <c r="A667" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B667" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="C667" s="12">
-        <v>181.0</v>
-      </c>
-      <c r="D667" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E667" s="6"/>
-    </row>
-    <row r="668" ht="14.25" customHeight="1">
-      <c r="A668" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B668" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="C668" s="12">
-        <v>182.0</v>
-      </c>
-      <c r="D668" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E668" s="6"/>
-    </row>
-    <row r="669" ht="14.25" customHeight="1">
-      <c r="A669" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B669" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="C669" s="12">
-        <v>183.0</v>
-      </c>
-      <c r="D669" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E669" s="6"/>
-    </row>
-    <row r="670" ht="14.25" customHeight="1">
-      <c r="A670" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B670" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="C670" s="12">
-        <v>184.0</v>
-      </c>
-      <c r="D670" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E670" s="6"/>
-    </row>
-    <row r="671" ht="14.25" customHeight="1">
-      <c r="A671" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B671" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="C671" s="12">
-        <v>185.0</v>
-      </c>
-      <c r="D671" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E671" s="6"/>
-    </row>
-    <row r="672" ht="14.25" customHeight="1">
-      <c r="A672" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B672" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="C672" s="12">
-        <v>186.0</v>
-      </c>
-      <c r="D672" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E672" s="6"/>
-    </row>
-    <row r="673" ht="14.25" customHeight="1">
-      <c r="A673" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B673" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="C673" s="12">
-        <v>187.0</v>
-      </c>
-      <c r="D673" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E673" s="6"/>
-    </row>
-    <row r="674" ht="14.25" customHeight="1">
-      <c r="A674" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B674" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C674" s="12">
-        <v>188.0</v>
-      </c>
-      <c r="D674" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E674" s="6"/>
-    </row>
-    <row r="675" ht="14.25" customHeight="1">
-      <c r="A675" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B675" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="C675" s="12">
-        <v>189.0</v>
-      </c>
-      <c r="D675" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E675" s="6"/>
-    </row>
-    <row r="676" ht="14.25" customHeight="1">
-      <c r="A676" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B676" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C676" s="12">
-        <v>190.0</v>
-      </c>
-      <c r="D676" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E676" s="6"/>
-    </row>
-    <row r="677" ht="14.25" customHeight="1">
-      <c r="A677" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B677" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="C677" s="12">
-        <v>191.0</v>
-      </c>
-      <c r="D677" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E677" s="6"/>
-    </row>
-    <row r="678" ht="14.25" customHeight="1">
-      <c r="A678" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B678" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C678" s="12">
-        <v>192.0</v>
-      </c>
-      <c r="D678" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E678" s="6"/>
-    </row>
-    <row r="679" ht="14.25" customHeight="1">
-      <c r="A679" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B679" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="C679" s="12">
-        <v>193.0</v>
-      </c>
-      <c r="D679" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E679" s="6"/>
-    </row>
-    <row r="680" ht="14.25" customHeight="1">
-      <c r="A680" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B680" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="C680" s="12">
-        <v>194.0</v>
-      </c>
-      <c r="D680" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E680" s="6"/>
-    </row>
-    <row r="681" ht="14.25" customHeight="1">
-      <c r="A681" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B681" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="C681" s="12">
-        <v>195.0</v>
-      </c>
-      <c r="D681" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E681" s="6"/>
-    </row>
-    <row r="682" ht="14.25" customHeight="1">
-      <c r="A682" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B682" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="C682" s="12">
-        <v>196.0</v>
-      </c>
-      <c r="D682" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E682" s="6"/>
-    </row>
-    <row r="683" ht="14.25" customHeight="1">
-      <c r="A683" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B683" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="C683" s="12">
-        <v>197.0</v>
-      </c>
-      <c r="D683" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E683" s="6"/>
-    </row>
-    <row r="684" ht="14.25" customHeight="1">
-      <c r="A684" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B684" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C684" s="12">
-        <v>198.0</v>
-      </c>
-      <c r="D684" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E684" s="6"/>
-    </row>
-    <row r="685" ht="14.25" customHeight="1">
-      <c r="A685" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B685" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="C685" s="12">
-        <v>199.0</v>
-      </c>
-      <c r="D685" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E685" s="6"/>
-    </row>
-    <row r="686" ht="14.25" customHeight="1">
-      <c r="A686" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B686" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="C686" s="12">
-        <v>200.0</v>
-      </c>
-      <c r="D686" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E686" s="6"/>
-    </row>
-    <row r="687" ht="14.25" customHeight="1">
-      <c r="A687" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B687" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="C687" s="12">
-        <v>201.0</v>
-      </c>
-      <c r="D687" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E687" s="6"/>
-    </row>
-    <row r="688" ht="14.25" customHeight="1">
-      <c r="A688" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B688" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="C688" s="12">
-        <v>202.0</v>
-      </c>
-      <c r="D688" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E688" s="6"/>
-    </row>
-    <row r="689" ht="14.25" customHeight="1">
-      <c r="A689" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B689" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="C689" s="12">
-        <v>203.0</v>
-      </c>
-      <c r="D689" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E689" s="6"/>
-    </row>
-    <row r="690" ht="14.25" customHeight="1">
-      <c r="A690" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B690" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="C690" s="12">
-        <v>204.0</v>
-      </c>
-      <c r="D690" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E690" s="6"/>
-    </row>
-    <row r="691" ht="14.25" customHeight="1">
-      <c r="A691" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B691" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="C691" s="12">
-        <v>205.0</v>
-      </c>
-      <c r="D691" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E691" s="6"/>
-    </row>
-    <row r="692" ht="14.25" customHeight="1">
-      <c r="A692" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B692" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="C692" s="12">
-        <v>206.0</v>
-      </c>
-      <c r="D692" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E692" s="6"/>
-    </row>
-    <row r="693" ht="14.25" customHeight="1">
-      <c r="A693" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B693" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="C693" s="12">
-        <v>207.0</v>
-      </c>
-      <c r="D693" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E693" s="6"/>
-    </row>
-    <row r="694" ht="14.25" customHeight="1">
-      <c r="A694" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B694" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="C694" s="12">
-        <v>208.0</v>
-      </c>
-      <c r="D694" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E694" s="6"/>
-    </row>
-    <row r="695" ht="14.25" customHeight="1">
-      <c r="A695" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B695" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="C695" s="12">
-        <v>209.0</v>
-      </c>
-      <c r="D695" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E695" s="6"/>
-    </row>
-    <row r="696" ht="14.25" customHeight="1">
-      <c r="A696" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B696" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="C696" s="12">
-        <v>210.0</v>
-      </c>
-      <c r="D696" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E696" s="6"/>
-    </row>
-    <row r="697" ht="14.25" customHeight="1">
-      <c r="A697" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B697" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="C697" s="12">
-        <v>211.0</v>
-      </c>
-      <c r="D697" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E697" s="6"/>
-    </row>
-    <row r="698" ht="14.25" customHeight="1">
-      <c r="A698" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B698" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="C698" s="12">
-        <v>212.0</v>
-      </c>
-      <c r="D698" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E698" s="6"/>
-    </row>
-    <row r="699" ht="14.25" customHeight="1">
-      <c r="A699" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B699" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="C699" s="12">
-        <v>213.0</v>
-      </c>
-      <c r="D699" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E699" s="6"/>
-    </row>
-    <row r="700" ht="14.25" customHeight="1">
-      <c r="A700" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B700" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="C700" s="12">
-        <v>214.0</v>
-      </c>
-      <c r="D700" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E700" s="6"/>
-    </row>
-    <row r="701" ht="14.25" customHeight="1">
-      <c r="A701" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B701" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="C701" s="12">
-        <v>215.0</v>
-      </c>
-      <c r="D701" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E701" s="6"/>
-    </row>
-    <row r="702" ht="14.25" customHeight="1">
-      <c r="A702" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B702" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="C702" s="12">
-        <v>216.0</v>
-      </c>
-      <c r="D702" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E702" s="6"/>
-    </row>
-    <row r="703" ht="14.25" customHeight="1">
-      <c r="A703" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B703" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="C703" s="12">
-        <v>217.0</v>
-      </c>
-      <c r="D703" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E703" s="6"/>
-    </row>
-    <row r="704" ht="14.25" customHeight="1">
-      <c r="A704" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B704" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="C704" s="12">
-        <v>218.0</v>
-      </c>
-      <c r="D704" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E704" s="6"/>
-    </row>
-    <row r="705" ht="14.25" customHeight="1">
-      <c r="A705" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B705" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="C705" s="12">
-        <v>219.0</v>
-      </c>
-      <c r="D705" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E705" s="6"/>
-    </row>
-    <row r="706" ht="14.25" customHeight="1">
-      <c r="A706" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B706" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="C706" s="12">
-        <v>220.0</v>
-      </c>
-      <c r="D706" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E706" s="6"/>
-    </row>
-    <row r="707" ht="14.25" customHeight="1">
-      <c r="A707" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B707" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="C707" s="12">
-        <v>221.0</v>
-      </c>
-      <c r="D707" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E707" s="6"/>
-    </row>
-    <row r="708" ht="14.25" customHeight="1">
-      <c r="A708" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B708" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="C708" s="12">
-        <v>222.0</v>
-      </c>
-      <c r="D708" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E708" s="6"/>
-    </row>
-    <row r="709" ht="14.25" customHeight="1">
-      <c r="A709" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B709" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="C709" s="12">
-        <v>223.0</v>
-      </c>
-      <c r="D709" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E709" s="6"/>
-    </row>
-    <row r="710" ht="14.25" customHeight="1">
-      <c r="A710" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B710" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="C710" s="12">
-        <v>224.0</v>
-      </c>
-      <c r="D710" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E710" s="6"/>
-    </row>
-    <row r="711" ht="14.25" customHeight="1">
-      <c r="A711" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B711" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="C711" s="12">
-        <v>225.0</v>
-      </c>
-      <c r="D711" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E711" s="6"/>
-    </row>
-    <row r="712" ht="14.25" customHeight="1">
-      <c r="A712" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B712" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="C712" s="12">
-        <v>226.0</v>
-      </c>
-      <c r="D712" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E712" s="6"/>
-    </row>
-    <row r="713" ht="14.25" customHeight="1">
-      <c r="A713" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B713" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="C713" s="12">
-        <v>227.0</v>
-      </c>
-      <c r="D713" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E713" s="6"/>
-    </row>
-    <row r="714" ht="14.25" customHeight="1">
-      <c r="A714" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B714" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="C714" s="12">
-        <v>228.0</v>
-      </c>
-      <c r="D714" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E714" s="6"/>
-    </row>
-    <row r="715" ht="14.25" customHeight="1">
-      <c r="A715" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B715" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="C715" s="12">
-        <v>229.0</v>
-      </c>
-      <c r="D715" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E715" s="6"/>
-    </row>
-    <row r="716" ht="14.25" customHeight="1">
-      <c r="A716" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B716" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="C716" s="12">
-        <v>230.0</v>
-      </c>
-      <c r="D716" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E716" s="6"/>
-    </row>
-    <row r="717" ht="14.25" customHeight="1">
-      <c r="A717" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B717" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="C717" s="12">
-        <v>231.0</v>
-      </c>
-      <c r="D717" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E717" s="6"/>
-    </row>
-    <row r="718" ht="14.25" customHeight="1">
-      <c r="A718" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B718" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="C718" s="12">
-        <v>232.0</v>
-      </c>
-      <c r="D718" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E718" s="6"/>
-    </row>
-    <row r="719" ht="14.25" customHeight="1">
-      <c r="A719" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B719" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="C719" s="12">
-        <v>233.0</v>
-      </c>
-      <c r="D719" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E719" s="6"/>
-    </row>
-    <row r="720" ht="14.25" customHeight="1">
-      <c r="A720" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B720" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="C720" s="12">
-        <v>234.0</v>
-      </c>
-      <c r="D720" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E720" s="6"/>
-    </row>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E34"/>
@@ -14162,6 +9756,192 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -14177,99 +9957,99 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>859</v>
+        <v>627</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>860</v>
+        <v>628</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>861</v>
+      <c r="D1" s="18" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>862</v>
+        <v>630</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>863</v>
+        <v>631</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="D2" s="18">
+        <v>632</v>
+      </c>
+      <c r="D2" s="19">
         <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>865</v>
+        <v>633</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>866</v>
+        <v>634</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="D3" s="18">
+        <v>632</v>
+      </c>
+      <c r="D3" s="19">
         <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>867</v>
+        <v>636</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="D4" s="18">
+        <v>632</v>
+      </c>
+      <c r="D4" s="19">
         <v>4.0</v>
       </c>
     </row>
     <row r="5" ht="54.0" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>868</v>
+        <v>637</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>869</v>
+        <v>638</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D5" s="18">
+        <v>639</v>
+      </c>
+      <c r="D5" s="19">
         <v>5.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>871</v>
+        <v>640</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>872</v>
+        <v>641</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D6" s="18">
+        <v>639</v>
+      </c>
+      <c r="D6" s="19">
         <v>6.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>873</v>
+        <v>642</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>874</v>
+        <v>643</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D7" s="18">
+        <v>639</v>
+      </c>
+      <c r="D7" s="19">
         <v>7.0</v>
       </c>
     </row>
@@ -15274,7 +11054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -15286,497 +11066,738 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.57"/>
     <col customWidth="1" min="2" max="2" width="21.0"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="11.57"/>
+    <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>875</v>
+        <v>644</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>876</v>
+        <v>645</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="B3" s="22"/>
+      <c r="A3" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>880</v>
-      </c>
-      <c r="B5" s="22"/>
+      <c r="A5" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>881</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="B7" s="22"/>
+      <c r="A7" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>883</v>
-      </c>
-      <c r="B8" s="22"/>
+      <c r="A8" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>884</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>885</v>
+      <c r="A9" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>886</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>887</v>
+      <c r="A10" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>888</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="B12" s="22"/>
+      <c r="A12" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="B13" s="22"/>
+      <c r="A13" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="B14" s="22"/>
+      <c r="A14" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="B15" s="22"/>
+      <c r="A15" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>893</v>
-      </c>
-      <c r="B16" s="22"/>
+      <c r="A16" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>894</v>
-      </c>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="B18" s="22"/>
+      <c r="A18" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="B19" s="22"/>
+      <c r="A19" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="B20" s="22"/>
+      <c r="A20" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="B22" s="22"/>
+      <c r="A22" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="B23" s="22"/>
+      <c r="A23" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>901</v>
-      </c>
-      <c r="B24" s="22"/>
+      <c r="A24" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>902</v>
-      </c>
-      <c r="B25" s="20"/>
+      <c r="A25" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>903</v>
-      </c>
-      <c r="B26" s="22"/>
+      <c r="A26" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="B27" s="22"/>
+      <c r="A27" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="B28" s="22"/>
+      <c r="A28" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>906</v>
-      </c>
-      <c r="B29" s="22"/>
+      <c r="A29" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>907</v>
-      </c>
-      <c r="B30" s="22"/>
+      <c r="A30" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="B31" s="22"/>
+      <c r="A31" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="B32" s="22"/>
+      <c r="A32" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>910</v>
-      </c>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="B34" s="22"/>
+      <c r="A34" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="21" t="s">
-        <v>912</v>
-      </c>
-      <c r="B35" s="22"/>
+      <c r="A35" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="21" t="s">
-        <v>913</v>
-      </c>
-      <c r="B36" s="22"/>
+      <c r="A36" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="21" t="s">
-        <v>914</v>
-      </c>
-      <c r="B37" s="22"/>
+      <c r="A37" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="21" t="s">
-        <v>915</v>
-      </c>
-      <c r="B38" s="22"/>
+      <c r="A38" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="B39" s="22"/>
+      <c r="A39" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="B40" s="22"/>
+      <c r="A40" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="19" t="s">
-        <v>918</v>
-      </c>
-      <c r="B41" s="20"/>
+      <c r="A41" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="B42" s="22"/>
+      <c r="A42" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>920</v>
-      </c>
-      <c r="B43" s="22"/>
+      <c r="A43" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="19" t="s">
-        <v>921</v>
-      </c>
-      <c r="B44" s="22"/>
+      <c r="A44" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="B45" s="22"/>
+      <c r="A45" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="20" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="21" t="s">
-        <v>923</v>
-      </c>
-      <c r="B46" s="22"/>
+      <c r="A46" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="21" t="s">
-        <v>924</v>
-      </c>
-      <c r="B47" s="22"/>
+      <c r="A47" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="20" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="B48" s="22"/>
+      <c r="A48" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="20" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="21" t="s">
-        <v>926</v>
-      </c>
-      <c r="B49" s="22"/>
+      <c r="A49" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="21" t="s">
-        <v>927</v>
-      </c>
-      <c r="B50" s="22"/>
+      <c r="A50" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="20" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="21" t="s">
-        <v>928</v>
-      </c>
-      <c r="B51" s="22"/>
+      <c r="A51" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B52" s="22"/>
+      <c r="A52" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="21" t="s">
-        <v>930</v>
-      </c>
-      <c r="B53" s="22"/>
+      <c r="A53" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="21" t="s">
-        <v>931</v>
-      </c>
-      <c r="B54" s="22"/>
+      <c r="A54" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="20" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="21" t="s">
-        <v>932</v>
-      </c>
-      <c r="B55" s="22"/>
+      <c r="A55" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="20" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="21" t="s">
-        <v>933</v>
-      </c>
-      <c r="B56" s="22"/>
+      <c r="A56" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="21" t="s">
-        <v>934</v>
-      </c>
-      <c r="B57" s="22"/>
+      <c r="A57" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="21" t="s">
-        <v>935</v>
-      </c>
-      <c r="B58" s="22"/>
+      <c r="A58" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="21" t="s">
-        <v>936</v>
-      </c>
-      <c r="B59" s="22"/>
+      <c r="A59" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="20" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="B60" s="22"/>
+      <c r="A60" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="20" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>938</v>
+      <c r="A61" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="24" t="s">
-        <v>939</v>
+      <c r="A62" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="24" t="s">
-        <v>940</v>
+      <c r="A63" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="24" t="s">
-        <v>941</v>
+      <c r="A64" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="24" t="s">
-        <v>942</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>943</v>
+      <c r="A65" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="24" t="s">
-        <v>944</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>945</v>
+      <c r="A66" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="24" t="s">
-        <v>946</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>947</v>
+      <c r="A67" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="24" t="s">
-        <v>948</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>949</v>
+      <c r="A68" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="24" t="s">
-        <v>950</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>951</v>
+      <c r="A69" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>953</v>
+      <c r="A70" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="24" t="s">
-        <v>954</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>953</v>
+      <c r="A71" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="24" t="s">
-        <v>955</v>
+      <c r="A72" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="24" t="s">
-        <v>956</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>957</v>
+      <c r="A73" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="24" t="s">
-        <v>958</v>
+      <c r="A74" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="24" t="s">
-        <v>959</v>
+      <c r="A75" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="24" t="s">
-        <v>960</v>
+      <c r="A76" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="24" t="s">
-        <v>961</v>
+      <c r="A77" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="24" t="s">
-        <v>962</v>
+      <c r="A78" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="24" t="s">
-        <v>963</v>
+      <c r="A79" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="24" t="s">
-        <v>964</v>
+      <c r="A80" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1"/>
@@ -16707,7 +12728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -16722,498 +12743,498 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>965</v>
+      <c r="A1" s="22" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>966</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>967</v>
+      <c r="A3" s="22" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>968</v>
+      <c r="A4" s="22" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>969</v>
+      <c r="A5" s="22" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>970</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>971</v>
+      <c r="A7" s="22" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>972</v>
+      <c r="A8" s="22" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>973</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>974</v>
+      <c r="A10" s="22" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>975</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>976</v>
+      <c r="A12" s="22" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>977</v>
+      <c r="A13" s="22" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>978</v>
+      <c r="A14" s="22" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>979</v>
+      <c r="A15" s="22" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>980</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>981</v>
+      <c r="A17" s="22" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>982</v>
+      <c r="A18" s="22" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>983</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>984</v>
+      <c r="A20" s="22" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>985</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>986</v>
+      <c r="A22" s="22" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>987</v>
+      <c r="A23" s="22" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="20" t="s">
-        <v>988</v>
+      <c r="A24" s="22" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>989</v>
+      <c r="A25" s="22" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>990</v>
+      <c r="A26" s="22" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>991</v>
+      <c r="A27" s="26" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>992</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>993</v>
+      <c r="A29" s="22" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="20" t="s">
-        <v>994</v>
+      <c r="A30" s="22" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="20" t="s">
-        <v>995</v>
+      <c r="A31" s="22" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>996</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="20" t="s">
-        <v>997</v>
+      <c r="A33" s="22" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="20" t="s">
-        <v>998</v>
+      <c r="A34" s="22" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>999</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>1000</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="20" t="s">
-        <v>1001</v>
+      <c r="A37" s="22" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="20" t="s">
-        <v>1002</v>
+      <c r="A38" s="22" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="20" t="s">
-        <v>1003</v>
+      <c r="A39" s="22" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="20" t="s">
-        <v>1004</v>
+      <c r="A40" s="22" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>1005</v>
+      <c r="A41" s="22" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>1006</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="20" t="s">
-        <v>1007</v>
+      <c r="A43" s="22" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="20" t="s">
-        <v>1008</v>
+      <c r="A44" s="22" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>1009</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="20" t="s">
-        <v>1010</v>
+      <c r="A46" s="22" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="26" t="s">
-        <v>1011</v>
+      <c r="A47" s="27" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="20" t="s">
-        <v>1012</v>
+      <c r="A48" s="22" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="20" t="s">
-        <v>1013</v>
+      <c r="A49" s="22" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="20" t="s">
-        <v>1014</v>
+      <c r="A50" s="22" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="20" t="s">
-        <v>1015</v>
+      <c r="A51" s="22" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="20" t="s">
-        <v>1016</v>
+      <c r="A52" s="22" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="20" t="s">
-        <v>1017</v>
+      <c r="A53" s="22" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="20" t="s">
-        <v>1018</v>
+      <c r="A54" s="22" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="20" t="s">
-        <v>1019</v>
+      <c r="A55" s="22" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="20" t="s">
-        <v>1020</v>
+      <c r="A56" s="22" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="20" t="s">
-        <v>1021</v>
+      <c r="A57" s="22" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="20" t="s">
-        <v>1022</v>
+      <c r="A58" s="22" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="20" t="s">
-        <v>1023</v>
+      <c r="A59" s="22" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="20" t="s">
-        <v>1024</v>
+      <c r="A60" s="22" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="20" t="s">
-        <v>1025</v>
+      <c r="A61" s="22" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="20" t="s">
-        <v>1026</v>
+      <c r="A62" s="22" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="20" t="s">
-        <v>1027</v>
+      <c r="A63" s="22" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="20" t="s">
-        <v>1028</v>
+      <c r="A64" s="22" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="20" t="s">
-        <v>1029</v>
+      <c r="A65" s="22" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="20" t="s">
-        <v>1030</v>
+      <c r="A66" s="22" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="20" t="s">
-        <v>1031</v>
+      <c r="A67" s="22" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="20" t="s">
-        <v>1032</v>
+      <c r="A68" s="22" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="20" t="s">
-        <v>932</v>
+      <c r="A69" s="22" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>1033</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>1034</v>
+        <v>808</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="20" t="s">
-        <v>1035</v>
+      <c r="A72" s="22" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="20" t="s">
-        <v>1036</v>
+      <c r="A73" s="22" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="20" t="s">
-        <v>1037</v>
+      <c r="A74" s="22" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>1038</v>
+        <v>812</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>1039</v>
+        <v>813</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="20" t="s">
-        <v>1040</v>
+      <c r="A77" s="22" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="20" t="s">
-        <v>1041</v>
+      <c r="A78" s="22" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="26" t="s">
-        <v>1042</v>
+      <c r="A79" s="27" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="20" t="s">
-        <v>1043</v>
+      <c r="A80" s="22" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="20" t="s">
-        <v>1044</v>
+      <c r="A81" s="22" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="26" t="s">
-        <v>1045</v>
+      <c r="A82" s="27" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="20" t="s">
-        <v>1046</v>
+      <c r="A83" s="22" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="20" t="s">
-        <v>1047</v>
+      <c r="A84" s="22" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="20" t="s">
-        <v>1048</v>
+      <c r="A85" s="22" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="20" t="s">
-        <v>1049</v>
+      <c r="A86" s="22" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="20" t="s">
-        <v>1050</v>
+      <c r="A87" s="22" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>1051</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="20" t="s">
-        <v>1052</v>
+      <c r="A89" s="22" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>1053</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="20" t="s">
-        <v>1054</v>
+      <c r="A91" s="22" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="20" t="s">
-        <v>1055</v>
+      <c r="A92" s="22" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>1056</v>
+        <v>830</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>1057</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="20" t="s">
-        <v>1058</v>
+      <c r="A95" s="22" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="20" t="s">
-        <v>1059</v>
+      <c r="A96" s="22" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>1060</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="26" t="s">
-        <v>1061</v>
+      <c r="A98" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="20" t="s">
-        <v>1062</v>
+      <c r="A99" s="22" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1"/>

--- a/tags.xlsx
+++ b/tags.xlsx
@@ -132,7 +132,7 @@
     <t>golf</t>
   </si>
   <si>
-    <t>🏌️‍♂️</t>
+    <t>🏌️‍</t>
   </si>
   <si>
     <t>gymnastics</t>
@@ -270,7 +270,7 @@
     <t>swimming</t>
   </si>
   <si>
-    <t>🏊‍♀️</t>
+    <t>🏊‍</t>
   </si>
   <si>
     <t>table tennis</t>
@@ -315,13 +315,13 @@
     <t>wrestling</t>
   </si>
   <si>
-    <t>🤼‍♂️</t>
+    <t>🤼‍</t>
   </si>
   <si>
     <t>yoga</t>
   </si>
   <si>
-    <t>🧘‍♀️</t>
+    <t>🧘</t>
   </si>
   <si>
     <t>physical_activity_frequency</t>
@@ -540,7 +540,7 @@
     <t>Hindu</t>
   </si>
   <si>
-    <t xml:space="preserve">🕉 </t>
+    <t>🕉</t>
   </si>
   <si>
     <t>Jewish</t>
@@ -585,7 +585,7 @@
     <t>🔥</t>
   </si>
   <si>
-    <t>religion_practice</t>
+    <t>religious_practice</t>
   </si>
   <si>
     <t>not practicing</t>
@@ -1461,7 +1461,7 @@
     <t>Spiritual Journeys &amp; Mindfulness</t>
   </si>
   <si>
-    <t>🧘‍♂️</t>
+    <t>🧘‍</t>
   </si>
   <si>
     <t>City breaks</t>
@@ -3726,22 +3726,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF1A0DAB"/>
       <name val="Roboto"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
+      <name val="&quot;\&quot;Google Sans\&quot;&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3764,24 +3768,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -4116,7 +4128,7 @@
       <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4134,7 +4146,7 @@
       <c r="E6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4152,7 +4164,7 @@
       <c r="E7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4170,7 +4182,7 @@
       <c r="E8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4188,7 +4200,7 @@
       <c r="E9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4206,7 +4218,7 @@
       <c r="E10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4224,7 +4236,7 @@
       <c r="E11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4242,7 +4254,7 @@
       <c r="E12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4260,7 +4272,7 @@
       <c r="E13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4278,7 +4290,7 @@
       <c r="E14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4296,7 +4308,7 @@
       <c r="E15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4314,7 +4326,7 @@
       <c r="E16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4332,7 +4344,7 @@
       <c r="E17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4350,7 +4362,7 @@
       <c r="E18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4368,7 +4380,7 @@
       <c r="E19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4386,7 +4398,7 @@
       <c r="E20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4404,7 +4416,7 @@
       <c r="E21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4422,7 +4434,7 @@
       <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4440,7 +4452,7 @@
       <c r="E23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4458,7 +4470,7 @@
       <c r="E24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4476,7 +4488,7 @@
       <c r="E25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4494,7 +4506,7 @@
       <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4512,7 +4524,7 @@
       <c r="E27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4530,7 +4542,7 @@
       <c r="E28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4548,7 +4560,7 @@
       <c r="E29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4566,7 +4578,7 @@
       <c r="E30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4584,7 +4596,7 @@
       <c r="E31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4602,7 +4614,7 @@
       <c r="E32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4620,7 +4632,7 @@
       <c r="E33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4638,7 +4650,7 @@
       <c r="E34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4656,7 +4668,7 @@
       <c r="E35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4674,7 +4686,7 @@
       <c r="E36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4692,7 +4704,7 @@
       <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4710,7 +4722,7 @@
       <c r="E38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4728,7 +4740,7 @@
       <c r="E39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4746,7 +4758,7 @@
       <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4764,7 +4776,7 @@
       <c r="E41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4782,7 +4794,7 @@
       <c r="E42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4800,7 +4812,7 @@
       <c r="E43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4818,7 +4830,7 @@
       <c r="E44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4836,7 +4848,7 @@
       <c r="E45" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4854,7 +4866,7 @@
       <c r="E46" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4872,7 +4884,7 @@
       <c r="E47" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4890,7 +4902,7 @@
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4908,7 +4920,7 @@
       <c r="E49" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4926,7 +4938,7 @@
       <c r="E50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4944,7 +4956,7 @@
       <c r="E51" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4952,7 +4964,7 @@
       <c r="A52" s="1">
         <v>51.0</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4964,7 +4976,7 @@
       <c r="E52" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4972,7 +4984,7 @@
       <c r="A53" s="1">
         <v>52.0</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4984,7 +4996,7 @@
       <c r="E53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4992,7 +5004,7 @@
       <c r="A54" s="1">
         <v>53.0</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5004,7 +5016,7 @@
       <c r="E54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5012,7 +5024,7 @@
       <c r="A55" s="1">
         <v>54.0</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5024,7 +5036,7 @@
       <c r="E55" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5032,7 +5044,7 @@
       <c r="A56" s="1">
         <v>55.0</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5044,7 +5056,7 @@
       <c r="E56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5064,7 +5076,7 @@
       <c r="E57" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5084,7 +5096,7 @@
       <c r="E58" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5104,7 +5116,7 @@
       <c r="E59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5124,7 +5136,7 @@
       <c r="E60" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5144,7 +5156,7 @@
       <c r="E61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5164,7 +5176,7 @@
       <c r="E62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5184,7 +5196,7 @@
       <c r="E63" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5204,7 +5216,7 @@
       <c r="E64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5224,7 +5236,7 @@
       <c r="E65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5244,7 +5256,7 @@
       <c r="E66" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5264,7 +5276,7 @@
       <c r="E67" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5284,7 +5296,7 @@
       <c r="E68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5304,7 +5316,7 @@
       <c r="E69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5324,7 +5336,7 @@
       <c r="E70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5344,7 +5356,7 @@
       <c r="E71" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5364,7 +5376,7 @@
       <c r="E72" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5384,7 +5396,7 @@
       <c r="E73" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5404,7 +5416,7 @@
       <c r="E74" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5424,7 +5436,7 @@
       <c r="E75" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5444,7 +5456,7 @@
       <c r="E76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5464,7 +5476,7 @@
       <c r="E77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5484,7 +5496,7 @@
       <c r="E78" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5504,7 +5516,7 @@
       <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5524,7 +5536,7 @@
       <c r="E80" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5544,7 +5556,7 @@
       <c r="E81" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5564,7 +5576,7 @@
       <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5584,7 +5596,7 @@
       <c r="E83" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5604,7 +5616,7 @@
       <c r="E84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5624,7 +5636,7 @@
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5642,7 +5654,7 @@
       <c r="E86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5660,7 +5672,7 @@
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5678,7 +5690,7 @@
       <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5696,7 +5708,7 @@
       <c r="E89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5714,7 +5726,7 @@
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5732,7 +5744,7 @@
       <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5750,7 +5762,7 @@
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5768,7 +5780,7 @@
       <c r="E93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5786,7 +5798,7 @@
       <c r="E94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5804,10 +5816,10 @@
       <c r="E95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="1">
@@ -5823,7 +5835,7 @@
       <c r="E96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5841,7 +5853,7 @@
       <c r="E97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5859,7 +5871,7 @@
       <c r="E98" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5877,7 +5889,7 @@
       <c r="E99" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5895,7 +5907,7 @@
       <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5913,7 +5925,7 @@
       <c r="E101" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5931,7 +5943,7 @@
       <c r="E102" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5949,7 +5961,7 @@
       <c r="E103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5967,7 +5979,7 @@
       <c r="E104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5985,7 +5997,7 @@
       <c r="E105" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6003,7 +6015,7 @@
       <c r="E106" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6011,7 +6023,7 @@
       <c r="A107" s="1">
         <v>106.0</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -6023,12 +6035,13 @@
       <c r="E107" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="1">
         <v>107.0</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -6040,12 +6053,13 @@
       <c r="E108" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="1">
         <v>108.0</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -6057,12 +6071,13 @@
       <c r="E109" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="1">
         <v>109.0</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -6074,12 +6089,13 @@
       <c r="E110" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="1">
         <v>110.0</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -6091,9 +6107,10 @@
       <c r="E111" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F111" s="8"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="4">
+      <c r="A112" s="5">
         <v>111.0</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -6102,18 +6119,18 @@
       <c r="C112" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="5">
         <v>1.0</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>112.0</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -6122,13 +6139,13 @@
       <c r="C113" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="5">
         <v>2.0</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6148,7 +6165,7 @@
       <c r="E114" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6168,7 +6185,7 @@
       <c r="E115" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6176,7 +6193,7 @@
       <c r="A116" s="1">
         <v>115.0</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6188,7 +6205,7 @@
       <c r="E116" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6196,10 +6213,10 @@
       <c r="A117" s="1">
         <v>116.0</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D117" s="1">
@@ -6208,7 +6225,7 @@
       <c r="E117" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6216,7 +6233,7 @@
       <c r="A118" s="1">
         <v>117.0</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -6228,7 +6245,7 @@
       <c r="E118" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6236,7 +6253,7 @@
       <c r="A119" s="1">
         <v>118.0</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -6248,7 +6265,7 @@
       <c r="E119" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6266,7 +6283,7 @@
       <c r="E120" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6284,7 +6301,7 @@
       <c r="E121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6302,7 +6319,7 @@
       <c r="E122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6320,7 +6337,7 @@
       <c r="E123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6338,7 +6355,7 @@
       <c r="E124" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6356,7 +6373,7 @@
       <c r="E125" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6374,7 +6391,7 @@
       <c r="E126" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6392,7 +6409,7 @@
       <c r="E127" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6410,7 +6427,7 @@
       <c r="E128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6428,7 +6445,7 @@
       <c r="E129" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6446,7 +6463,7 @@
       <c r="E130" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6464,7 +6481,7 @@
       <c r="E131" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6482,7 +6499,7 @@
       <c r="E132" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6500,7 +6517,7 @@
       <c r="E133" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6518,7 +6535,7 @@
       <c r="E134" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6536,7 +6553,7 @@
       <c r="E135" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6554,7 +6571,7 @@
       <c r="E136" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6572,7 +6589,7 @@
       <c r="E137" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6590,6 +6607,7 @@
       <c r="E138" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F138" s="8"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="1">
@@ -6605,6 +6623,7 @@
       <c r="E139" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F139" s="8"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="1">
@@ -6613,14 +6632,14 @@
       <c r="B140" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6638,7 +6657,7 @@
       <c r="E141" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6656,7 +6675,7 @@
       <c r="E142" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6674,7 +6693,7 @@
       <c r="E143" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6692,7 +6711,7 @@
       <c r="E144" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6710,7 +6729,7 @@
       <c r="E145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="3" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6728,7 +6747,7 @@
       <c r="E146" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="3" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6746,7 +6765,7 @@
       <c r="E147" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6764,7 +6783,7 @@
       <c r="E148" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6782,7 +6801,7 @@
       <c r="E149" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6800,7 +6819,7 @@
       <c r="E150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6818,7 +6837,7 @@
       <c r="E151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="3" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6836,7 +6855,7 @@
       <c r="E152" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6854,7 +6873,7 @@
       <c r="E153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6872,7 +6891,7 @@
       <c r="E154" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6890,7 +6909,7 @@
       <c r="E155" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6908,7 +6927,7 @@
       <c r="E156" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="3" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6926,7 +6945,7 @@
       <c r="E157" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="3" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6944,7 +6963,7 @@
       <c r="E158" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6962,7 +6981,7 @@
       <c r="E159" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6980,7 +6999,7 @@
       <c r="E160" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="3" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6998,7 +7017,7 @@
       <c r="E161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7016,7 +7035,7 @@
       <c r="E162" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7034,7 +7053,7 @@
       <c r="E163" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="3" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7052,7 +7071,7 @@
       <c r="E164" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7070,7 +7089,7 @@
       <c r="E165" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7088,7 +7107,7 @@
       <c r="E166" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7106,7 +7125,7 @@
       <c r="E167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7124,7 +7143,7 @@
       <c r="E168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="3" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7142,7 +7161,7 @@
       <c r="E169" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7160,7 +7179,7 @@
       <c r="E170" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -7178,7 +7197,7 @@
       <c r="E171" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="3" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7196,7 +7215,7 @@
       <c r="E172" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7214,7 +7233,7 @@
       <c r="E173" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7232,7 +7251,7 @@
       <c r="E174" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="3" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7250,7 +7269,7 @@
       <c r="E175" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7268,7 +7287,7 @@
       <c r="E176" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F176" s="3" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7286,7 +7305,7 @@
       <c r="E177" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7304,7 +7323,7 @@
       <c r="E178" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -7322,7 +7341,7 @@
       <c r="E179" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7340,7 +7359,7 @@
       <c r="E180" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7358,7 +7377,7 @@
       <c r="E181" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7376,7 +7395,7 @@
       <c r="E182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F182" s="3" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7394,7 +7413,7 @@
       <c r="E183" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" s="3" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7412,7 +7431,7 @@
       <c r="E184" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" s="3" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7430,7 +7449,7 @@
       <c r="E185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F185" s="3" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7448,7 +7467,7 @@
       <c r="E186" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7466,7 +7485,7 @@
       <c r="E187" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F187" s="4" t="s">
+      <c r="F187" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7484,7 +7503,7 @@
       <c r="E188" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F188" s="3" t="s">
         <v>285</v>
       </c>
     </row>
@@ -7502,7 +7521,7 @@
       <c r="E189" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F189" s="4" t="s">
+      <c r="F189" s="3" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7520,7 +7539,7 @@
       <c r="E190" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F190" s="4" t="s">
+      <c r="F190" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7538,7 +7557,7 @@
       <c r="E191" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F191" s="4" t="s">
+      <c r="F191" s="3" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7556,7 +7575,7 @@
       <c r="E192" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F192" s="4" t="s">
+      <c r="F192" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7574,7 +7593,7 @@
       <c r="E193" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F193" s="4" t="s">
+      <c r="F193" s="3" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7592,7 +7611,7 @@
       <c r="E194" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7610,7 +7629,7 @@
       <c r="E195" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F195" s="4" t="s">
+      <c r="F195" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7628,7 +7647,7 @@
       <c r="E196" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F196" s="4" t="s">
+      <c r="F196" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7646,7 +7665,7 @@
       <c r="E197" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F197" s="4" t="s">
+      <c r="F197" s="3" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7664,7 +7683,7 @@
       <c r="E198" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7682,7 +7701,7 @@
       <c r="E199" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F199" s="4" t="s">
+      <c r="F199" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7700,7 +7719,7 @@
       <c r="E200" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="F200" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7718,7 +7737,7 @@
       <c r="E201" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F201" s="4" t="s">
+      <c r="F201" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7736,7 +7755,7 @@
       <c r="E202" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F202" s="4" t="s">
+      <c r="F202" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7754,7 +7773,7 @@
       <c r="E203" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F203" s="4" t="s">
+      <c r="F203" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7772,7 +7791,7 @@
       <c r="E204" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F204" s="4" t="s">
+      <c r="F204" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7790,7 +7809,7 @@
       <c r="E205" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F205" s="4" t="s">
+      <c r="F205" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7808,7 +7827,7 @@
       <c r="E206" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F206" s="4" t="s">
+      <c r="F206" s="3" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7826,7 +7845,7 @@
       <c r="E207" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F207" s="4" t="s">
+      <c r="F207" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7844,7 +7863,7 @@
       <c r="E208" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F208" s="4" t="s">
+      <c r="F208" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7862,7 +7881,7 @@
       <c r="E209" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7880,7 +7899,7 @@
       <c r="E210" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F210" s="4" t="s">
+      <c r="F210" s="3" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7898,7 +7917,7 @@
       <c r="E211" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F211" s="3" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7916,7 +7935,7 @@
       <c r="E212" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F212" s="3" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7934,7 +7953,7 @@
       <c r="E213" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F213" s="4" t="s">
+      <c r="F213" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7952,7 +7971,7 @@
       <c r="E214" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F214" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7970,7 +7989,7 @@
       <c r="E215" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F215" s="4" t="s">
+      <c r="F215" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7988,7 +8007,7 @@
       <c r="E216" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F216" s="3" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8006,7 +8025,7 @@
       <c r="E217" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F217" s="4" t="s">
+      <c r="F217" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8024,7 +8043,7 @@
       <c r="E218" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F218" s="4" t="s">
+      <c r="F218" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8042,7 +8061,7 @@
       <c r="E219" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F219" s="4" t="s">
+      <c r="F219" s="3" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8060,7 +8079,7 @@
       <c r="E220" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F220" s="4" t="s">
+      <c r="F220" s="3" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8078,7 +8097,7 @@
       <c r="E221" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F221" s="4" t="s">
+      <c r="F221" s="3" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8096,7 +8115,7 @@
       <c r="E222" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F222" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8114,7 +8133,7 @@
       <c r="E223" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F223" s="3" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8132,7 +8151,7 @@
       <c r="E224" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F224" s="4" t="s">
+      <c r="F224" s="3" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8150,7 +8169,7 @@
       <c r="E225" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F225" s="4" t="s">
+      <c r="F225" s="3" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8168,7 +8187,7 @@
       <c r="E226" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F226" s="4" t="s">
+      <c r="F226" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8186,7 +8205,7 @@
       <c r="E227" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F227" s="4" t="s">
+      <c r="F227" s="3" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8204,7 +8223,7 @@
       <c r="E228" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F228" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8222,7 +8241,7 @@
       <c r="E229" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F229" s="4" t="s">
+      <c r="F229" s="3" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8240,7 +8259,7 @@
       <c r="E230" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F230" s="4" t="s">
+      <c r="F230" s="3" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8258,7 +8277,7 @@
       <c r="E231" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="F231" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8276,7 +8295,7 @@
       <c r="E232" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F232" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8294,7 +8313,7 @@
       <c r="E233" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F233" s="4" t="s">
+      <c r="F233" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8312,7 +8331,7 @@
       <c r="E234" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F234" s="4" t="s">
+      <c r="F234" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8330,7 +8349,7 @@
       <c r="E235" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F235" s="4" t="s">
+      <c r="F235" s="3" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8348,7 +8367,7 @@
       <c r="E236" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F236" s="4" t="s">
+      <c r="F236" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8366,7 +8385,7 @@
       <c r="E237" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F237" s="4" t="s">
+      <c r="F237" s="3" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8384,7 +8403,7 @@
       <c r="E238" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F238" s="4" t="s">
+      <c r="F238" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8402,7 +8421,7 @@
       <c r="E239" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F239" s="4" t="s">
+      <c r="F239" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8420,7 +8439,7 @@
       <c r="E240" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F240" s="4" t="s">
+      <c r="F240" s="3" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8438,7 +8457,7 @@
       <c r="E241" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F241" s="4" t="s">
+      <c r="F241" s="3" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8456,7 +8475,7 @@
       <c r="E242" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F242" s="4" t="s">
+      <c r="F242" s="3" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8474,7 +8493,7 @@
       <c r="E243" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F243" s="4" t="s">
+      <c r="F243" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8492,7 +8511,7 @@
       <c r="E244" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F244" s="4" t="s">
+      <c r="F244" s="3" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8510,7 +8529,7 @@
       <c r="E245" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F245" s="4" t="s">
+      <c r="F245" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8528,7 +8547,7 @@
       <c r="E246" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F246" s="4" t="s">
+      <c r="F246" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8546,7 +8565,7 @@
       <c r="E247" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F247" s="4" t="s">
+      <c r="F247" s="3" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8564,7 +8583,7 @@
       <c r="E248" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="F248" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8582,7 +8601,7 @@
       <c r="E249" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F249" s="4" t="s">
+      <c r="F249" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8600,7 +8619,7 @@
       <c r="E250" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F250" s="4" t="s">
+      <c r="F250" s="3" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8618,7 +8637,7 @@
       <c r="E251" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F251" s="4" t="s">
+      <c r="F251" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8636,7 +8655,7 @@
       <c r="E252" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F252" s="4" t="s">
+      <c r="F252" s="3" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8654,7 +8673,7 @@
       <c r="E253" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F253" s="4" t="s">
+      <c r="F253" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8672,7 +8691,7 @@
       <c r="E254" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F254" s="4" t="s">
+      <c r="F254" s="3" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8690,7 +8709,7 @@
       <c r="E255" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F255" s="4" t="s">
+      <c r="F255" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8708,7 +8727,7 @@
       <c r="E256" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F256" s="4" t="s">
+      <c r="F256" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8726,7 +8745,7 @@
       <c r="E257" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F257" s="4" t="s">
+      <c r="F257" s="3" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8744,7 +8763,7 @@
       <c r="E258" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F258" s="4" t="s">
+      <c r="F258" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8762,7 +8781,7 @@
       <c r="E259" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F259" s="4" t="s">
+      <c r="F259" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8780,7 +8799,7 @@
       <c r="E260" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F260" s="4" t="s">
+      <c r="F260" s="3" t="s">
         <v>416</v>
       </c>
     </row>
@@ -8798,7 +8817,7 @@
       <c r="E261" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F261" s="4" t="s">
+      <c r="F261" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8816,7 +8835,7 @@
       <c r="E262" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F262" s="4" t="s">
+      <c r="F262" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8834,7 +8853,7 @@
       <c r="E263" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F263" s="4" t="s">
+      <c r="F263" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8852,7 +8871,7 @@
       <c r="E264" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F264" s="4" t="s">
+      <c r="F264" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8870,7 +8889,7 @@
       <c r="E265" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F265" s="4" t="s">
+      <c r="F265" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8888,7 +8907,7 @@
       <c r="E266" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F266" s="4" t="s">
+      <c r="F266" s="3" t="s">
         <v>425</v>
       </c>
     </row>
@@ -8906,7 +8925,7 @@
       <c r="E267" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F267" s="4" t="s">
+      <c r="F267" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8924,7 +8943,7 @@
       <c r="E268" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F268" s="4" t="s">
+      <c r="F268" s="3" t="s">
         <v>428</v>
       </c>
     </row>
@@ -8942,7 +8961,7 @@
       <c r="E269" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F269" s="4" t="s">
+      <c r="F269" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8960,7 +8979,7 @@
       <c r="E270" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F270" s="4" t="s">
+      <c r="F270" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8978,7 +8997,7 @@
       <c r="E271" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F271" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8996,7 +9015,7 @@
       <c r="E272" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F272" s="4" t="s">
+      <c r="F272" s="3" t="s">
         <v>433</v>
       </c>
     </row>
@@ -9014,7 +9033,7 @@
       <c r="E273" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F273" s="4" t="s">
+      <c r="F273" s="3" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9032,7 +9051,7 @@
       <c r="E274" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F274" s="4" t="s">
+      <c r="F274" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9050,7 +9069,7 @@
       <c r="E275" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F275" s="4" t="s">
+      <c r="F275" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9068,7 +9087,7 @@
       <c r="E276" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F276" s="4" t="s">
+      <c r="F276" s="3" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9086,7 +9105,7 @@
       <c r="E277" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F277" s="4" t="s">
+      <c r="F277" s="3" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9104,7 +9123,7 @@
       <c r="E278" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F278" s="4" t="s">
+      <c r="F278" s="3" t="s">
         <v>446</v>
       </c>
     </row>
@@ -9122,7 +9141,7 @@
       <c r="E279" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F279" s="4" t="s">
+      <c r="F279" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9140,7 +9159,7 @@
       <c r="E280" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F280" s="4" t="s">
+      <c r="F280" s="3" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9158,7 +9177,7 @@
       <c r="E281" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F281" s="4" t="s">
+      <c r="F281" s="3" t="s">
         <v>451</v>
       </c>
     </row>
@@ -9176,7 +9195,7 @@
       <c r="E282" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F282" s="4" t="s">
+      <c r="F282" s="3" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9194,7 +9213,7 @@
       <c r="E283" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F283" s="4" t="s">
+      <c r="F283" s="3" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9212,7 +9231,7 @@
       <c r="E284" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F284" s="4" t="s">
+      <c r="F284" s="3" t="s">
         <v>457</v>
       </c>
     </row>
@@ -9223,14 +9242,14 @@
       <c r="B285" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F285" s="4" t="s">
+      <c r="F285" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9241,14 +9260,14 @@
       <c r="B286" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="5" t="s">
         <v>461</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F286" s="4" t="s">
+      <c r="F286" s="3" t="s">
         <v>462</v>
       </c>
     </row>
@@ -9259,14 +9278,14 @@
       <c r="B287" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="5" t="s">
         <v>463</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F287" s="4" t="s">
+      <c r="F287" s="3" t="s">
         <v>464</v>
       </c>
     </row>
@@ -9277,14 +9296,14 @@
       <c r="B288" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="5" t="s">
         <v>465</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F288" s="4" t="s">
+      <c r="F288" s="3" t="s">
         <v>466</v>
       </c>
     </row>
@@ -9295,14 +9314,14 @@
       <c r="B289" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="5" t="s">
         <v>467</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F289" s="4" t="s">
+      <c r="F289" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9313,14 +9332,14 @@
       <c r="B290" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="5" t="s">
         <v>468</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F290" s="4" t="s">
+      <c r="F290" s="3" t="s">
         <v>469</v>
       </c>
     </row>
@@ -9331,14 +9350,14 @@
       <c r="B291" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="5" t="s">
         <v>470</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F291" s="4" t="s">
+      <c r="F291" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -9349,14 +9368,14 @@
       <c r="B292" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="5" t="s">
         <v>472</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F292" s="4" t="s">
+      <c r="F292" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -9367,14 +9386,14 @@
       <c r="B293" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="5" t="s">
         <v>474</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F293" s="4" t="s">
+      <c r="F293" s="3" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9385,14 +9404,14 @@
       <c r="B294" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="5" t="s">
         <v>476</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F294" s="4" t="s">
+      <c r="F294" s="3" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9403,14 +9422,14 @@
       <c r="B295" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="5" t="s">
         <v>477</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F295" s="4" t="s">
+      <c r="F295" s="3" t="s">
         <v>478</v>
       </c>
     </row>
@@ -9421,14 +9440,14 @@
       <c r="B296" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F296" s="4" t="s">
+      <c r="F296" s="3" t="s">
         <v>479</v>
       </c>
     </row>
@@ -9439,14 +9458,14 @@
       <c r="B297" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="5" t="s">
         <v>480</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F297" s="4" t="s">
+      <c r="F297" s="3" t="s">
         <v>481</v>
       </c>
     </row>
@@ -9464,7 +9483,7 @@
       <c r="E298" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F298" s="1" t="s">
+      <c r="F298" s="3" t="s">
         <v>483</v>
       </c>
     </row>
@@ -9472,7 +9491,7 @@
       <c r="A299" s="1">
         <v>298.0</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -9482,7 +9501,7 @@
       <c r="E299" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F299" s="1" t="s">
+      <c r="F299" s="3" t="s">
         <v>486</v>
       </c>
     </row>
@@ -9490,7 +9509,7 @@
       <c r="A300" s="1">
         <v>299.0</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -9500,7 +9519,7 @@
       <c r="E300" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F300" s="1" t="s">
+      <c r="F300" s="3" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9508,7 +9527,7 @@
       <c r="A301" s="1">
         <v>300.0</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -9518,7 +9537,7 @@
       <c r="E301" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="F301" s="3" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9526,7 +9545,7 @@
       <c r="A302" s="1">
         <v>301.0</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -9536,7 +9555,7 @@
       <c r="E302" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F302" s="1" t="s">
+      <c r="F302" s="3" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9544,7 +9563,7 @@
       <c r="A303" s="1">
         <v>302.0</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -9554,7 +9573,7 @@
       <c r="E303" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F303" s="1" t="s">
+      <c r="F303" s="3" t="s">
         <v>494</v>
       </c>
     </row>
@@ -9562,7 +9581,7 @@
       <c r="A304" s="1">
         <v>303.0</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -9572,7 +9591,7 @@
       <c r="E304" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="F304" s="3" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9580,7 +9599,7 @@
       <c r="A305" s="1">
         <v>304.0</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -9590,7 +9609,7 @@
       <c r="E305" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="F305" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -9598,7 +9617,7 @@
       <c r="A306" s="1">
         <v>305.0</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -9608,7 +9627,7 @@
       <c r="E306" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F306" s="1" t="s">
+      <c r="F306" s="3" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9616,7 +9635,7 @@
       <c r="A307" s="1">
         <v>306.0</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -9626,7 +9645,7 @@
       <c r="E307" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F307" s="1" t="s">
+      <c r="F307" s="3" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9634,7 +9653,7 @@
       <c r="A308" s="1">
         <v>307.0</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -9644,7 +9663,7 @@
       <c r="E308" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F308" s="1" t="s">
+      <c r="F308" s="3" t="s">
         <v>503</v>
       </c>
     </row>
@@ -9652,7 +9671,7 @@
       <c r="A309" s="1">
         <v>308.0</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -9662,7 +9681,7 @@
       <c r="E309" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F309" s="1" t="s">
+      <c r="F309" s="3" t="s">
         <v>505</v>
       </c>
     </row>
@@ -9670,7 +9689,7 @@
       <c r="A310" s="1">
         <v>309.0</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -9680,7 +9699,7 @@
       <c r="E310" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F310" s="1" t="s">
+      <c r="F310" s="3" t="s">
         <v>507</v>
       </c>
     </row>
@@ -9688,7 +9707,7 @@
       <c r="A311" s="1">
         <v>310.0</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -9698,7 +9717,7 @@
       <c r="E311" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F311" s="1" t="s">
+      <c r="F311" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -9706,7 +9725,7 @@
       <c r="A312" s="1">
         <v>311.0</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -9716,7 +9735,7 @@
       <c r="E312" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F312" s="1" t="s">
+      <c r="F312" s="3" t="s">
         <v>511</v>
       </c>
     </row>
@@ -9724,7 +9743,7 @@
       <c r="A313" s="1">
         <v>312.0</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -9734,7 +9753,7 @@
       <c r="E313" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F313" s="1" t="s">
+      <c r="F313" s="3" t="s">
         <v>513</v>
       </c>
     </row>
@@ -9742,7 +9761,7 @@
       <c r="A314" s="1">
         <v>313.0</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -9752,7 +9771,7 @@
       <c r="E314" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F314" s="1" t="s">
+      <c r="F314" s="3" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9760,7 +9779,7 @@
       <c r="A315" s="1">
         <v>314.0</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -9770,7 +9789,7 @@
       <c r="E315" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F315" s="1" t="s">
+      <c r="F315" s="3" t="s">
         <v>517</v>
       </c>
     </row>
@@ -9788,7 +9807,7 @@
       <c r="E316" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F316" s="4" t="s">
+      <c r="F316" s="3" t="s">
         <v>520</v>
       </c>
     </row>
@@ -9806,7 +9825,7 @@
       <c r="E317" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F317" s="4" t="s">
+      <c r="F317" s="3" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9824,7 +9843,7 @@
       <c r="E318" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F318" s="4" t="s">
+      <c r="F318" s="3" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9842,7 +9861,7 @@
       <c r="E319" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F319" s="4" t="s">
+      <c r="F319" s="3" t="s">
         <v>520</v>
       </c>
     </row>
@@ -9860,7 +9879,7 @@
       <c r="E320" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F320" s="4" t="s">
+      <c r="F320" s="3" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9878,7 +9897,7 @@
       <c r="E321" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F321" s="4" t="s">
+      <c r="F321" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9896,7 +9915,7 @@
       <c r="E322" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F322" s="4" t="s">
+      <c r="F322" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9914,7 +9933,7 @@
       <c r="E323" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F323" s="4" t="s">
+      <c r="F323" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9932,7 +9951,7 @@
       <c r="E324" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F324" s="4" t="s">
+      <c r="F324" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9950,7 +9969,7 @@
       <c r="E325" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F325" s="4" t="s">
+      <c r="F325" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9968,7 +9987,7 @@
       <c r="E326" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F326" s="4" t="s">
+      <c r="F326" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9986,7 +10005,7 @@
       <c r="E327" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F327" s="4" t="s">
+      <c r="F327" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10004,7 +10023,7 @@
       <c r="E328" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F328" s="4" t="s">
+      <c r="F328" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10022,7 +10041,7 @@
       <c r="E329" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="F329" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10040,7 +10059,7 @@
       <c r="E330" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F330" s="4" t="s">
+      <c r="F330" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10058,7 +10077,7 @@
       <c r="E331" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F331" s="4" t="s">
+      <c r="F331" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10076,7 +10095,7 @@
       <c r="E332" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F332" s="4" t="s">
+      <c r="F332" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10094,7 +10113,7 @@
       <c r="E333" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F333" s="4" t="s">
+      <c r="F333" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10112,7 +10131,7 @@
       <c r="E334" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F334" s="4" t="s">
+      <c r="F334" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10130,7 +10149,7 @@
       <c r="E335" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F335" s="4" t="s">
+      <c r="F335" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10148,7 +10167,7 @@
       <c r="E336" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F336" s="4" t="s">
+      <c r="F336" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10166,7 +10185,7 @@
       <c r="E337" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F337" s="4" t="s">
+      <c r="F337" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10184,7 +10203,7 @@
       <c r="E338" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F338" s="4" t="s">
+      <c r="F338" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10202,7 +10221,7 @@
       <c r="E339" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F339" s="4" t="s">
+      <c r="F339" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10220,7 +10239,7 @@
       <c r="E340" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F340" s="4" t="s">
+      <c r="F340" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10238,7 +10257,7 @@
       <c r="E341" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F341" s="4" t="s">
+      <c r="F341" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10256,7 +10275,7 @@
       <c r="E342" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F342" s="4" t="s">
+      <c r="F342" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10274,7 +10293,7 @@
       <c r="E343" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F343" s="4" t="s">
+      <c r="F343" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10292,7 +10311,7 @@
       <c r="E344" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F344" s="4" t="s">
+      <c r="F344" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10310,7 +10329,7 @@
       <c r="E345" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F345" s="4" t="s">
+      <c r="F345" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10328,7 +10347,7 @@
       <c r="E346" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F346" s="4" t="s">
+      <c r="F346" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10346,7 +10365,7 @@
       <c r="E347" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F347" s="4" t="s">
+      <c r="F347" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10364,7 +10383,7 @@
       <c r="E348" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F348" s="4" t="s">
+      <c r="F348" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10382,7 +10401,7 @@
       <c r="E349" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F349" s="4" t="s">
+      <c r="F349" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10400,7 +10419,7 @@
       <c r="E350" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F350" s="4" t="s">
+      <c r="F350" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10418,7 +10437,7 @@
       <c r="E351" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F351" s="4" t="s">
+      <c r="F351" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10436,7 +10455,7 @@
       <c r="E352" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F352" s="4" t="s">
+      <c r="F352" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10454,7 +10473,7 @@
       <c r="E353" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F353" s="4" t="s">
+      <c r="F353" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10472,7 +10491,7 @@
       <c r="E354" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F354" s="4" t="s">
+      <c r="F354" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10490,7 +10509,7 @@
       <c r="E355" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F355" s="4" t="s">
+      <c r="F355" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10508,7 +10527,7 @@
       <c r="E356" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F356" s="4" t="s">
+      <c r="F356" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10526,7 +10545,7 @@
       <c r="E357" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F357" s="4" t="s">
+      <c r="F357" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10544,7 +10563,7 @@
       <c r="E358" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F358" s="4" t="s">
+      <c r="F358" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10562,7 +10581,7 @@
       <c r="E359" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F359" s="4" t="s">
+      <c r="F359" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10580,7 +10599,7 @@
       <c r="E360" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F360" s="4" t="s">
+      <c r="F360" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10598,7 +10617,7 @@
       <c r="E361" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F361" s="4" t="s">
+      <c r="F361" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10616,7 +10635,7 @@
       <c r="E362" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F362" s="4" t="s">
+      <c r="F362" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10634,7 +10653,7 @@
       <c r="E363" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F363" s="4" t="s">
+      <c r="F363" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10652,7 +10671,7 @@
       <c r="E364" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F364" s="4" t="s">
+      <c r="F364" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10670,7 +10689,7 @@
       <c r="E365" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F365" s="4" t="s">
+      <c r="F365" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10688,7 +10707,7 @@
       <c r="E366" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F366" s="4" t="s">
+      <c r="F366" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10706,7 +10725,7 @@
       <c r="E367" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F367" s="4" t="s">
+      <c r="F367" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10724,7 +10743,7 @@
       <c r="E368" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F368" s="4" t="s">
+      <c r="F368" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10742,7 +10761,7 @@
       <c r="E369" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F369" s="4" t="s">
+      <c r="F369" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10760,7 +10779,7 @@
       <c r="E370" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F370" s="4" t="s">
+      <c r="F370" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10778,7 +10797,7 @@
       <c r="E371" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F371" s="4" t="s">
+      <c r="F371" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10796,7 +10815,7 @@
       <c r="E372" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F372" s="4" t="s">
+      <c r="F372" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10814,7 +10833,7 @@
       <c r="E373" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F373" s="4" t="s">
+      <c r="F373" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10832,7 +10851,7 @@
       <c r="E374" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F374" s="4" t="s">
+      <c r="F374" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10850,7 +10869,7 @@
       <c r="E375" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F375" s="4" t="s">
+      <c r="F375" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10868,7 +10887,7 @@
       <c r="E376" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F376" s="4" t="s">
+      <c r="F376" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10886,7 +10905,7 @@
       <c r="E377" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F377" s="4" t="s">
+      <c r="F377" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10904,7 +10923,7 @@
       <c r="E378" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F378" s="4" t="s">
+      <c r="F378" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10922,7 +10941,7 @@
       <c r="E379" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F379" s="4" t="s">
+      <c r="F379" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10940,7 +10959,7 @@
       <c r="E380" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F380" s="4" t="s">
+      <c r="F380" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10958,7 +10977,7 @@
       <c r="E381" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F381" s="4" t="s">
+      <c r="F381" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10976,7 +10995,7 @@
       <c r="E382" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F382" s="4" t="s">
+      <c r="F382" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10994,7 +11013,7 @@
       <c r="E383" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F383" s="4" t="s">
+      <c r="F383" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11012,7 +11031,7 @@
       <c r="E384" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F384" s="4" t="s">
+      <c r="F384" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11030,7 +11049,7 @@
       <c r="E385" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F385" s="4" t="s">
+      <c r="F385" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11048,7 +11067,7 @@
       <c r="E386" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F386" s="4" t="s">
+      <c r="F386" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11066,7 +11085,7 @@
       <c r="E387" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F387" s="4" t="s">
+      <c r="F387" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11084,7 +11103,7 @@
       <c r="E388" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F388" s="4" t="s">
+      <c r="F388" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11102,7 +11121,7 @@
       <c r="E389" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F389" s="4" t="s">
+      <c r="F389" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11120,7 +11139,7 @@
       <c r="E390" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F390" s="4" t="s">
+      <c r="F390" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11138,7 +11157,7 @@
       <c r="E391" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F391" s="4" t="s">
+      <c r="F391" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11156,7 +11175,7 @@
       <c r="E392" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F392" s="4" t="s">
+      <c r="F392" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11174,7 +11193,7 @@
       <c r="E393" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F393" s="4" t="s">
+      <c r="F393" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11192,7 +11211,7 @@
       <c r="E394" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F394" s="4" t="s">
+      <c r="F394" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11210,7 +11229,7 @@
       <c r="E395" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F395" s="4" t="s">
+      <c r="F395" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11228,7 +11247,7 @@
       <c r="E396" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F396" s="4" t="s">
+      <c r="F396" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11246,7 +11265,7 @@
       <c r="E397" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F397" s="4" t="s">
+      <c r="F397" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11264,7 +11283,7 @@
       <c r="E398" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F398" s="4" t="s">
+      <c r="F398" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11282,7 +11301,7 @@
       <c r="E399" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F399" s="4" t="s">
+      <c r="F399" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11300,7 +11319,7 @@
       <c r="E400" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F400" s="4" t="s">
+      <c r="F400" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11318,7 +11337,7 @@
       <c r="E401" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F401" s="4" t="s">
+      <c r="F401" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11336,7 +11355,7 @@
       <c r="E402" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F402" s="4" t="s">
+      <c r="F402" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11354,7 +11373,7 @@
       <c r="E403" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F403" s="4" t="s">
+      <c r="F403" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11372,7 +11391,7 @@
       <c r="E404" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F404" s="4" t="s">
+      <c r="F404" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11390,7 +11409,7 @@
       <c r="E405" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F405" s="4" t="s">
+      <c r="F405" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11408,7 +11427,7 @@
       <c r="E406" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F406" s="4" t="s">
+      <c r="F406" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11426,7 +11445,7 @@
       <c r="E407" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F407" s="4" t="s">
+      <c r="F407" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11444,7 +11463,7 @@
       <c r="E408" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F408" s="4" t="s">
+      <c r="F408" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11462,7 +11481,7 @@
       <c r="E409" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F409" s="4" t="s">
+      <c r="F409" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11480,7 +11499,7 @@
       <c r="E410" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F410" s="4" t="s">
+      <c r="F410" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11498,7 +11517,7 @@
       <c r="E411" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F411" s="4" t="s">
+      <c r="F411" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11516,7 +11535,7 @@
       <c r="E412" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F412" s="4" t="s">
+      <c r="F412" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11534,7 +11553,7 @@
       <c r="E413" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F413" s="4" t="s">
+      <c r="F413" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11552,7 +11571,7 @@
       <c r="E414" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F414" s="4" t="s">
+      <c r="F414" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11570,7 +11589,7 @@
       <c r="E415" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F415" s="4" t="s">
+      <c r="F415" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11588,7 +11607,7 @@
       <c r="E416" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F416" s="4" t="s">
+      <c r="F416" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11606,7 +11625,7 @@
       <c r="E417" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F417" s="4" t="s">
+      <c r="F417" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11624,7 +11643,7 @@
       <c r="E418" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F418" s="4" t="s">
+      <c r="F418" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11642,7 +11661,7 @@
       <c r="E419" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F419" s="4" t="s">
+      <c r="F419" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11660,7 +11679,7 @@
       <c r="E420" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F420" s="4" t="s">
+      <c r="F420" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11678,7 +11697,7 @@
       <c r="E421" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F421" s="4" t="s">
+      <c r="F421" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11696,7 +11715,7 @@
       <c r="E422" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F422" s="4" t="s">
+      <c r="F422" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11714,7 +11733,7 @@
       <c r="E423" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F423" s="4" t="s">
+      <c r="F423" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11732,7 +11751,7 @@
       <c r="E424" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F424" s="4" t="s">
+      <c r="F424" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11750,7 +11769,7 @@
       <c r="E425" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F425" s="4" t="s">
+      <c r="F425" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11768,7 +11787,7 @@
       <c r="E426" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F426" s="4" t="s">
+      <c r="F426" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11786,7 +11805,7 @@
       <c r="E427" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F427" s="4" t="s">
+      <c r="F427" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11804,7 +11823,7 @@
       <c r="E428" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F428" s="4" t="s">
+      <c r="F428" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11822,7 +11841,7 @@
       <c r="E429" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F429" s="4" t="s">
+      <c r="F429" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11840,7 +11859,7 @@
       <c r="E430" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F430" s="4" t="s">
+      <c r="F430" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11858,7 +11877,7 @@
       <c r="E431" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F431" s="4" t="s">
+      <c r="F431" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11876,7 +11895,7 @@
       <c r="E432" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F432" s="4" t="s">
+      <c r="F432" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11894,7 +11913,7 @@
       <c r="E433" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F433" s="4" t="s">
+      <c r="F433" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11912,7 +11931,7 @@
       <c r="E434" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F434" s="4" t="s">
+      <c r="F434" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11930,7 +11949,7 @@
       <c r="E435" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F435" s="4" t="s">
+      <c r="F435" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11948,7 +11967,7 @@
       <c r="E436" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F436" s="4" t="s">
+      <c r="F436" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11966,7 +11985,7 @@
       <c r="E437" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F437" s="4" t="s">
+      <c r="F437" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11984,7 +12003,7 @@
       <c r="E438" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F438" s="4" t="s">
+      <c r="F438" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12002,7 +12021,7 @@
       <c r="E439" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F439" s="4" t="s">
+      <c r="F439" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12020,7 +12039,7 @@
       <c r="E440" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F440" s="4" t="s">
+      <c r="F440" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12038,7 +12057,7 @@
       <c r="E441" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F441" s="4" t="s">
+      <c r="F441" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12056,7 +12075,7 @@
       <c r="E442" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F442" s="4" t="s">
+      <c r="F442" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12074,7 +12093,7 @@
       <c r="E443" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F443" s="4" t="s">
+      <c r="F443" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12092,7 +12111,7 @@
       <c r="E444" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F444" s="4" t="s">
+      <c r="F444" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12110,7 +12129,7 @@
       <c r="E445" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F445" s="4" t="s">
+      <c r="F445" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12128,7 +12147,7 @@
       <c r="E446" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F446" s="4" t="s">
+      <c r="F446" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12146,7 +12165,7 @@
       <c r="E447" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F447" s="4" t="s">
+      <c r="F447" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12164,7 +12183,7 @@
       <c r="E448" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F448" s="4" t="s">
+      <c r="F448" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12182,7 +12201,7 @@
       <c r="E449" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F449" s="4" t="s">
+      <c r="F449" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12200,7 +12219,7 @@
       <c r="E450" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F450" s="4" t="s">
+      <c r="F450" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12218,7 +12237,7 @@
       <c r="E451" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F451" s="4" t="s">
+      <c r="F451" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12236,7 +12255,7 @@
       <c r="E452" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F452" s="4" t="s">
+      <c r="F452" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12254,7 +12273,7 @@
       <c r="E453" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F453" s="4" t="s">
+      <c r="F453" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12272,7 +12291,7 @@
       <c r="E454" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F454" s="4" t="s">
+      <c r="F454" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12290,7 +12309,7 @@
       <c r="E455" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F455" s="4" t="s">
+      <c r="F455" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12308,7 +12327,7 @@
       <c r="E456" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F456" s="4" t="s">
+      <c r="F456" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12326,7 +12345,7 @@
       <c r="E457" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F457" s="4" t="s">
+      <c r="F457" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12344,7 +12363,7 @@
       <c r="E458" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F458" s="4" t="s">
+      <c r="F458" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12362,7 +12381,7 @@
       <c r="E459" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F459" s="4" t="s">
+      <c r="F459" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12380,7 +12399,7 @@
       <c r="E460" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F460" s="4" t="s">
+      <c r="F460" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12398,7 +12417,7 @@
       <c r="E461" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F461" s="4" t="s">
+      <c r="F461" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12416,7 +12435,7 @@
       <c r="E462" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F462" s="4" t="s">
+      <c r="F462" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12434,7 +12453,7 @@
       <c r="E463" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F463" s="4" t="s">
+      <c r="F463" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12452,7 +12471,7 @@
       <c r="E464" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F464" s="4" t="s">
+      <c r="F464" s="3" t="s">
         <v>674</v>
       </c>
     </row>
@@ -12470,7 +12489,7 @@
       <c r="E465" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F465" s="4" t="s">
+      <c r="F465" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -12488,7 +12507,7 @@
       <c r="E466" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F466" s="4" t="s">
+      <c r="F466" s="3" t="s">
         <v>677</v>
       </c>
     </row>
@@ -12506,7 +12525,7 @@
       <c r="E467" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F467" s="4" t="s">
+      <c r="F467" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -12524,7 +12543,7 @@
       <c r="E468" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F468" s="4" t="s">
+      <c r="F468" s="3" t="s">
         <v>680</v>
       </c>
     </row>
@@ -12542,7 +12561,7 @@
       <c r="E469" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F469" s="4" t="s">
+      <c r="F469" s="3" t="s">
         <v>682</v>
       </c>
     </row>
@@ -12560,7 +12579,7 @@
       <c r="E470" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F470" s="4" t="s">
+      <c r="F470" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -12578,7 +12597,7 @@
       <c r="E471" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F471" s="4" t="s">
+      <c r="F471" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12596,7 +12615,7 @@
       <c r="E472" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F472" s="4" t="s">
+      <c r="F472" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -12614,7 +12633,7 @@
       <c r="E473" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F473" s="4" t="s">
+      <c r="F473" s="3" t="s">
         <v>247</v>
       </c>
     </row>
@@ -12632,7 +12651,7 @@
       <c r="E474" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F474" s="4" t="s">
+      <c r="F474" s="3" t="s">
         <v>259</v>
       </c>
     </row>
@@ -12650,7 +12669,7 @@
       <c r="E475" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F475" s="4" t="s">
+      <c r="F475" s="3" t="s">
         <v>689</v>
       </c>
     </row>
@@ -12668,7 +12687,7 @@
       <c r="E476" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F476" s="4" t="s">
+      <c r="F476" s="3" t="s">
         <v>691</v>
       </c>
     </row>
@@ -12686,7 +12705,7 @@
       <c r="E477" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F477" s="4" t="s">
+      <c r="F477" s="3" t="s">
         <v>693</v>
       </c>
     </row>
@@ -12704,7 +12723,7 @@
       <c r="E478" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F478" s="4" t="s">
+      <c r="F478" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12722,7 +12741,7 @@
       <c r="E479" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F479" s="4" t="s">
+      <c r="F479" s="3" t="s">
         <v>696</v>
       </c>
     </row>
@@ -12730,7 +12749,7 @@
       <c r="A480" s="1">
         <v>479.0</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="B480" s="5" t="s">
         <v>697</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -12742,7 +12761,7 @@
       <c r="E480" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F480" s="4" t="s">
+      <c r="F480" s="3" t="s">
         <v>698</v>
       </c>
     </row>
@@ -12750,10 +12769,10 @@
       <c r="A481" s="1">
         <v>480.0</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="B481" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="C481" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D481" s="1">
@@ -12762,7 +12781,7 @@
       <c r="E481" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F481" s="4" t="s">
+      <c r="F481" s="3" t="s">
         <v>433</v>
       </c>
     </row>
@@ -12770,7 +12789,7 @@
       <c r="A482" s="1">
         <v>481.0</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="B482" s="5" t="s">
         <v>697</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -12782,7 +12801,7 @@
       <c r="E482" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F482" s="4" t="s">
+      <c r="F482" s="3" t="s">
         <v>433</v>
       </c>
     </row>
@@ -12790,7 +12809,7 @@
       <c r="A483" s="1">
         <v>482.0</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="B483" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -12802,7 +12821,7 @@
       <c r="E483" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F483" s="4" t="s">
+      <c r="F483" s="3" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12810,10 +12829,10 @@
       <c r="A484" s="1">
         <v>483.0</v>
       </c>
-      <c r="B484" s="4" t="s">
+      <c r="B484" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C484" s="4" t="s">
+      <c r="C484" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D484" s="1">
@@ -12822,7 +12841,7 @@
       <c r="E484" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F484" s="4" t="s">
+      <c r="F484" s="3" t="s">
         <v>701</v>
       </c>
     </row>
@@ -12830,7 +12849,7 @@
       <c r="A485" s="1">
         <v>484.0</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="B485" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -12842,7 +12861,7 @@
       <c r="E485" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F485" s="4" t="s">
+      <c r="F485" s="3" t="s">
         <v>701</v>
       </c>
     </row>
@@ -13422,7 +13441,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>1.0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -13437,7 +13456,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -13452,7 +13471,7 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13467,7 +13486,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -13482,7 +13501,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -13497,7 +13516,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -13512,7 +13531,7 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>7.0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -13527,7 +13546,7 @@
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>8.0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -13542,7 +13561,7 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>9.0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -13557,7 +13576,7 @@
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>10.0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -13572,7 +13591,7 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>11.0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13587,7 +13606,7 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>12.0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -15769,7 +15788,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>2.0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -15783,7 +15802,7 @@
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>3.0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -15797,7 +15816,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>4.0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -15811,7 +15830,7 @@
       </c>
     </row>
     <row r="5" ht="54.0" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>5.0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -15825,7 +15844,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>6.0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -15839,7 +15858,7 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>7.0</v>
       </c>
       <c r="B7" s="2" t="s">
